--- a/www/template.xlsx
+++ b/www/template.xlsx
@@ -5,22 +5,25 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Profils\mcanouil\Downloads\endoc_beta\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Profils\mcanouil\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11400"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11400" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="blank" sheetId="3" r:id="rId1"/>
-    <sheet name="siNTP" sheetId="1" r:id="rId2"/>
-    <sheet name="siGENE" sheetId="8" r:id="rId3"/>
+    <sheet name="Blank" sheetId="3" r:id="rId1"/>
+    <sheet name="Vide" sheetId="1" r:id="rId2"/>
+    <sheet name="CT" sheetId="10" r:id="rId3"/>
+    <sheet name="MRAP2" sheetId="9" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.0" hidden="1">siNTP!$A$8:$A$19</definedName>
-    <definedName name="_xlchart.1" hidden="1">siNTP!$N$8:$N$19</definedName>
-    <definedName name="_xlchart.2" hidden="1">siGENE!$A$8:$A$19</definedName>
-    <definedName name="_xlchart.3" hidden="1">siGENE!$N$8:$N$19</definedName>
+    <definedName name="_xlchart.0" hidden="1">Vide!$G$8:$G$19</definedName>
+    <definedName name="_xlchart.1" hidden="1">Vide!$O$8:$O$19</definedName>
+    <definedName name="_xlchart.2" hidden="1">CT!$G$8:$G$19</definedName>
+    <definedName name="_xlchart.3" hidden="1">CT!$O$8:$O$19</definedName>
+    <definedName name="_xlchart.4" hidden="1">MRAP2!$G$8:$G$19</definedName>
+    <definedName name="_xlchart.5" hidden="1">MRAP2!$O$8:$O$19</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="35">
   <si>
     <t>OD2</t>
   </si>
@@ -76,15 +79,6 @@
     <t>Step</t>
   </si>
   <si>
-    <t>Mickaël</t>
-  </si>
-  <si>
-    <t>siNTP</t>
-  </si>
-  <si>
-    <t>siGENE</t>
-  </si>
-  <si>
     <t>Mean</t>
   </si>
   <si>
@@ -118,9 +112,6 @@
     <t>Target</t>
   </si>
   <si>
-    <t>Control</t>
-  </si>
-  <si>
     <t>Log10(Mean - BlankBaseline)</t>
   </si>
   <si>
@@ -134,6 +125,21 @@
   </si>
   <si>
     <t>Glc + IBMX</t>
+  </si>
+  <si>
+    <t>Project</t>
+  </si>
+  <si>
+    <t>Reference</t>
+  </si>
+  <si>
+    <t>MRAP2</t>
+  </si>
+  <si>
+    <t>Marlene</t>
+  </si>
+  <si>
+    <t>Control</t>
   </si>
 </sst>
 </file>
@@ -192,9 +198,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -350,7 +355,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>blank!$I$3:$I$7</c:f>
+              <c:f>Blank!$J$3:$J$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -374,24 +379,24 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>blank!$H$3:$H$7</c:f>
+              <c:f>Blank!$I$3:$I$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>-2.0030048315551272</c:v>
+                  <c:v>-1.6171188328185646</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.1634986574057025</c:v>
+                  <c:v>-1.1348895080281001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.58345043779044847</c:v>
+                  <c:v>-0.59986195284654265</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-9.9350944599108121E-2</c:v>
+                  <c:v>-9.3588801690178136E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.1322339225490709</c:v>
+                  <c:v>0.12843875411450839</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -855,6 +860,86 @@
 </cx:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.4</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.5</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Insulin Secretion in Human </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="el-GR"/>
+              <a:t>β</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>-Cell Line</a:t>
+            </a:r>
+          </a:p>
+        </cx:rich>
+      </cx:tx>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{1AADE385-274C-4E6D-891C-0A52BAD6D776}">
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:title>
+          <cx:tx>
+            <cx:rich>
+              <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr">
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Insulin Secretion (% of content)</a:t>
+                </a:r>
+              </a:p>
+            </cx:rich>
+          </cx:tx>
+        </cx:title>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+  <cx:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+</cx:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -975,6 +1060,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2463,17 +2588,503 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="-60000000" vert="horz"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:lumOff val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="-60000000" vert="horz"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:bodyPr rot="0" vert="horz"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="-60000000" vert="horz"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
@@ -2502,13 +3113,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>38099</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>733424</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>161924</xdr:rowOff>
@@ -2575,13 +3186,86 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>38099</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>733424</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" Requires="cx">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Graphique 1"/>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100"/>
+                <a:t>Ce graphique n’est pas disponible dans votre version d’Excel.
+La modification de cette forme ou l’enregistrement de ce classeur dans un autre format de fichier endommagera le graphique de façon irréparable.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>733424</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>161924</xdr:rowOff>
@@ -2907,1145 +3591,1254 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="E1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="4" t="s">
+      <c r="H1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <f ca="1">TODAY()</f>
+        <v>43832</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0.1763641</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0.16216549999999999</v>
+      </c>
+      <c r="H2" s="4">
+        <f t="shared" ref="H2:H7" si="0">AVERAGE(F2:G2)</f>
+        <v>0.16926479999999999</v>
+      </c>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="M2">
+        <f>INTERCEPT($I$3:$I$7,$J$3:$J$7)</f>
+        <v>-0.75311170846159248</v>
+      </c>
+      <c r="N2">
+        <f>SLOPE($I$3:$I$7,$J$3:$J$7)</f>
+        <v>0.96613374810954222</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <f ca="1">Blank!A$2</f>
+        <v>43832</v>
+      </c>
+      <c r="B3" s="5" t="str">
+        <f>Blank!B$2</f>
+        <v>Marlene</v>
+      </c>
+      <c r="C3" s="5" t="str">
+        <f>Blank!C$2</f>
+        <v>MRAP2</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="4">
         <v>3</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>20</v>
+      <c r="F3" s="4">
+        <v>0.19498869999999999</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0.1918369</v>
+      </c>
+      <c r="H3" s="4">
+        <f t="shared" si="0"/>
+        <v>0.1934128</v>
+      </c>
+      <c r="I3" s="4">
+        <f>LOG(H3-$H$2, 10)</f>
+        <v>-1.6171188328185646</v>
+      </c>
+      <c r="J3" s="4">
+        <f>LOG(E3/23, 10)</f>
+        <v>-0.88460658129793046</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <f ca="1">Blank!A$2</f>
+        <v>43832</v>
+      </c>
+      <c r="B4" s="5" t="str">
+        <f>Blank!B$2</f>
+        <v>Marlene</v>
+      </c>
+      <c r="C4" s="5" t="str">
+        <f>Blank!C$2</f>
+        <v>MRAP2</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="5">
-        <v>0</v>
-      </c>
-      <c r="C2" s="5">
-        <v>0.20423189999999999</v>
-      </c>
-      <c r="D2" s="5">
-        <v>0.17763899999999999</v>
-      </c>
-      <c r="E2" s="6">
-        <v>43822</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="5">
-        <f t="shared" ref="G2:G7" si="0">AVERAGE(C2:D2)</f>
-        <v>0.19093545000000001</v>
-      </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="L2">
-        <f>INTERCEPT($H$3:$H$7,$I$3:$I$7)</f>
-        <v>-0.84938707425670934</v>
-      </c>
-      <c r="M2">
-        <f>SLOPE($H$3:$H$7,$I$3:$I$7)</f>
-        <v>1.1413072494087257</v>
+      <c r="E4" s="4">
+        <v>9.74</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0.24529400000000001</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0.23983779999999999</v>
+      </c>
+      <c r="H4" s="4">
+        <f t="shared" si="0"/>
+        <v>0.2425659</v>
+      </c>
+      <c r="I4" s="4">
+        <f t="shared" ref="I4:I7" si="1">LOG(H4-$H$2, 10)</f>
+        <v>-1.1348895080281001</v>
+      </c>
+      <c r="J4" s="4">
+        <f t="shared" ref="J4:J7" si="2">LOG(E4/23, 10)</f>
+        <v>-0.37316887913897728</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <f ca="1">Blank!A$2</f>
+        <v>43832</v>
+      </c>
+      <c r="B5" s="5" t="str">
+        <f>Blank!B$2</f>
+        <v>Marlene</v>
+      </c>
+      <c r="C5" s="5" t="str">
+        <f>Blank!C$2</f>
+        <v>MRAP2</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="5">
-        <v>3</v>
-      </c>
-      <c r="C3" s="5">
-        <v>0.2008665</v>
-      </c>
-      <c r="D3" s="5">
-        <v>0.2008665</v>
-      </c>
-      <c r="E3" s="6">
-        <v>43822</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="5">
+      <c r="E5" s="4">
+        <v>29.8</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.42611120000000002</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0.41495539999999997</v>
+      </c>
+      <c r="H5" s="4">
         <f t="shared" si="0"/>
-        <v>0.2008665</v>
-      </c>
-      <c r="H3" s="5">
-        <f>LOG(G3-$G$2, 10)</f>
-        <v>-2.0030048315551272</v>
-      </c>
-      <c r="I3" s="5">
-        <f>LOG(B3/23, 10)</f>
-        <v>-0.88460658129793046</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="5">
-        <v>9.74</v>
-      </c>
-      <c r="C4" s="5">
-        <v>0.25203959999999997</v>
-      </c>
-      <c r="D4" s="5">
-        <v>0.26708730000000003</v>
-      </c>
-      <c r="E4" s="6">
-        <v>43822</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="5">
-        <f t="shared" si="0"/>
-        <v>0.25956345000000003</v>
-      </c>
-      <c r="H4" s="5">
-        <f t="shared" ref="H4:H7" si="1">LOG(G4-$G$2, 10)</f>
-        <v>-1.1634986574057025</v>
-      </c>
-      <c r="I4" s="5">
-        <f t="shared" ref="I4:I7" si="2">LOG(B4/23, 10)</f>
-        <v>-0.37316887913897728</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="5">
-        <v>29.8</v>
-      </c>
-      <c r="C5" s="5">
-        <v>0.41668260000000001</v>
-      </c>
-      <c r="D5" s="5">
-        <v>0.48707899999999998</v>
-      </c>
-      <c r="E5" s="6">
-        <v>43822</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="5">
-        <f t="shared" si="0"/>
-        <v>0.45188079999999997</v>
-      </c>
-      <c r="H5" s="5">
+        <v>0.4205333</v>
+      </c>
+      <c r="I5" s="4">
         <f t="shared" si="1"/>
-        <v>-0.58345043779044847</v>
-      </c>
-      <c r="I5" s="5">
+        <v>-0.59986195284654265</v>
+      </c>
+      <c r="J5" s="4">
         <f t="shared" si="2"/>
         <v>0.11248842805866237</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <f ca="1">Blank!A$2</f>
+        <v>43832</v>
+      </c>
+      <c r="B6" s="5" t="str">
+        <f>Blank!B$2</f>
+        <v>Marlene</v>
+      </c>
+      <c r="C6" s="5" t="str">
+        <f>Blank!C$2</f>
+        <v>MRAP2</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="5">
+      <c r="E6" s="4">
         <v>104</v>
       </c>
-      <c r="C6" s="5">
-        <v>0.93432040000000005</v>
-      </c>
-      <c r="D6" s="5">
-        <v>1.038583</v>
-      </c>
-      <c r="E6" s="6">
-        <v>43822</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="5">
+      <c r="F6" s="4">
+        <v>0.97403810000000002</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0.97677420000000004</v>
+      </c>
+      <c r="H6" s="4">
         <f t="shared" si="0"/>
-        <v>0.98645170000000004</v>
-      </c>
-      <c r="H6" s="5">
+        <v>0.97540614999999997</v>
+      </c>
+      <c r="I6" s="4">
         <f t="shared" si="1"/>
-        <v>-9.9350944599108121E-2</v>
-      </c>
-      <c r="I6" s="5">
+        <v>-9.3588801690178136E-2</v>
+      </c>
+      <c r="J6" s="4">
         <f t="shared" si="2"/>
         <v>0.65530550328118731</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <f ca="1">Blank!A$2</f>
+        <v>43832</v>
+      </c>
+      <c r="B7" s="5" t="str">
+        <f>Blank!B$2</f>
+        <v>Marlene</v>
+      </c>
+      <c r="C7" s="5" t="str">
+        <f>Blank!C$2</f>
+        <v>MRAP2</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="5">
+      <c r="E7" s="4">
         <v>207</v>
       </c>
-      <c r="C7" s="5">
-        <v>1.474067</v>
-      </c>
-      <c r="D7" s="5">
-        <v>1.6196429999999999</v>
-      </c>
-      <c r="E7" s="6">
-        <v>43822</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="5">
+      <c r="F7" s="4">
+        <v>1.4908680000000001</v>
+      </c>
+      <c r="G7" s="4">
+        <v>1.535906</v>
+      </c>
+      <c r="H7" s="4">
         <f t="shared" si="0"/>
-        <v>1.5468549999999999</v>
-      </c>
-      <c r="H7" s="5">
+        <v>1.513387</v>
+      </c>
+      <c r="I7" s="4">
         <f t="shared" si="1"/>
-        <v>0.1322339225490709</v>
-      </c>
-      <c r="I7" s="5">
+        <v>0.12843875411450839</v>
+      </c>
+      <c r="J7" s="4">
         <f t="shared" si="2"/>
         <v>0.95424250943932487</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="11.42578125" customWidth="1"/>
-    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="0" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="15" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="0" hidden="1" customWidth="1"/>
+    <col min="5" max="6" width="11.42578125" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" customWidth="1"/>
+    <col min="11" max="11" width="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="29.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="I1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="M1" s="4" t="s">
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <f ca="1">Blank!A$2</f>
+        <v>43832</v>
+      </c>
+      <c r="B2" s="2" t="str">
+        <f>Blank!B$2</f>
+        <v>Marlene</v>
+      </c>
+      <c r="C2" s="2" t="str">
+        <f>Blank!C$2</f>
+        <v>MRAP2</v>
+      </c>
+      <c r="D2" s="1" t="str">
+        <f t="shared" ref="D2:D19" ca="1" si="0">RIGHT(CELL("nomfichier",A1),LEN(CELL("nomfichier",A1))-SEARCH("]",CELL("nomfichier",A1)))</f>
+        <v>Vide</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="N1" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="F2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="2">
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1">
         <v>500</v>
       </c>
-      <c r="G2" s="2">
+      <c r="L2" s="1">
         <f>50</f>
         <v>50</v>
       </c>
-      <c r="H2" s="2">
-        <v>1.8776040000000001</v>
-      </c>
-      <c r="I2" s="2">
-        <v>1.7650330000000001</v>
-      </c>
-      <c r="J2" s="3">
-        <v>43822</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L2" s="2">
-        <f>10^((LOG(AVERAGE(H2:I2)-blank!$G$2, 10)-blank!$L$2)/blank!$M$2) * F2</f>
-        <v>4257.9315489309402</v>
-      </c>
-      <c r="M2" s="2">
-        <f t="shared" ref="M2:M19" si="0">(G2/10^3 * L2)</f>
-        <v>212.89657744654701</v>
-      </c>
-      <c r="N2" s="2"/>
+      <c r="M2" s="1" t="e">
+        <f>10^((LOG(AVERAGE(I2:J2)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K2</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N2" s="1" t="e">
+        <f t="shared" ref="N2:N19" si="1">(L2/10^3 * M2)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <f ca="1">Blank!A$2</f>
+        <v>43832</v>
+      </c>
+      <c r="B3" s="2" t="str">
+        <f>Blank!B$2</f>
+        <v>Marlene</v>
+      </c>
+      <c r="C3" s="2" t="str">
+        <f>Blank!C$2</f>
+        <v>MRAP2</v>
+      </c>
+      <c r="D3" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Vide</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="1" t="str">
+        <f>$F$2</f>
+        <v>Control</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="H3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="2">
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1">
         <v>500</v>
       </c>
-      <c r="G3" s="2">
+      <c r="L3" s="1">
         <f>50</f>
         <v>50</v>
       </c>
-      <c r="H3" s="2">
-        <v>1.422086</v>
-      </c>
-      <c r="I3" s="2">
-        <v>1.698612</v>
-      </c>
-      <c r="J3" s="3">
-        <v>43822</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L3" s="2">
-        <f>10^((LOG(AVERAGE(H3:I3)-blank!$G$2, 10)-blank!$L$2)/blank!$M$2) * F3</f>
-        <v>3654.4582744152913</v>
-      </c>
-      <c r="M3" s="2">
-        <f t="shared" si="0"/>
-        <v>182.72291372076458</v>
-      </c>
-      <c r="N3" s="2"/>
+      <c r="M3" s="1" t="e">
+        <f>10^((LOG(AVERAGE(I3:J3)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N3" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <f ca="1">Blank!A$2</f>
+        <v>43832</v>
+      </c>
+      <c r="B4" s="2" t="str">
+        <f>Blank!B$2</f>
+        <v>Marlene</v>
+      </c>
+      <c r="C4" s="2" t="str">
+        <f>Blank!C$2</f>
+        <v>MRAP2</v>
+      </c>
+      <c r="D4" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Vide</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="1" t="str">
+        <f t="shared" ref="F4:F19" si="2">$F$2</f>
+        <v>Control</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="H4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="2">
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1">
         <v>500</v>
       </c>
-      <c r="G4" s="2">
+      <c r="L4" s="1">
         <f>50</f>
         <v>50</v>
       </c>
-      <c r="H4" s="2">
-        <v>1.2850429999999999</v>
-      </c>
-      <c r="I4" s="2">
-        <v>1.2774810000000001</v>
-      </c>
-      <c r="J4" s="3">
-        <v>43822</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L4" s="2">
-        <f>10^((LOG(AVERAGE(H4:I4)-blank!$G$2, 10)-blank!$L$2)/blank!$M$2) * F4</f>
-        <v>2992.9510775001377</v>
-      </c>
-      <c r="M4" s="2">
-        <f t="shared" si="0"/>
-        <v>149.64755387500688</v>
-      </c>
-      <c r="N4" s="2"/>
+      <c r="M4" s="1" t="e">
+        <f>10^((LOG(AVERAGE(I4:J4)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K4</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N4" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O4" s="1"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <f ca="1">Blank!A$2</f>
+        <v>43832</v>
+      </c>
+      <c r="B5" s="2" t="str">
+        <f>Blank!B$2</f>
+        <v>Marlene</v>
+      </c>
+      <c r="C5" s="2" t="str">
+        <f>Blank!C$2</f>
+        <v>MRAP2</v>
+      </c>
+      <c r="D5" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Vide</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Control</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="2">
+      <c r="H5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1">
         <v>500</v>
       </c>
-      <c r="G5" s="2">
+      <c r="L5" s="1">
         <f>50</f>
         <v>50</v>
       </c>
-      <c r="H5" s="2">
-        <v>1.2202679999999999</v>
-      </c>
-      <c r="I5" s="2">
-        <v>1.556934</v>
-      </c>
-      <c r="J5" s="3">
-        <v>43822</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L5" s="2">
-        <f>10^((LOG(AVERAGE(H5:I5)-blank!$G$2, 10)-blank!$L$2)/blank!$M$2) * F5</f>
-        <v>3249.5982510198596</v>
-      </c>
-      <c r="M5" s="2">
-        <f t="shared" si="0"/>
-        <v>162.47991255099299</v>
-      </c>
-      <c r="N5" s="2"/>
+      <c r="M5" s="1" t="e">
+        <f>10^((LOG(AVERAGE(I5:J5)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K5</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N5" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O5" s="1"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <f ca="1">Blank!A$2</f>
+        <v>43832</v>
+      </c>
+      <c r="B6" s="2" t="str">
+        <f>Blank!B$2</f>
+        <v>Marlene</v>
+      </c>
+      <c r="C6" s="2" t="str">
+        <f>Blank!C$2</f>
+        <v>MRAP2</v>
+      </c>
+      <c r="D6" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Vide</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Control</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="2">
+      <c r="H6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1">
         <v>500</v>
       </c>
-      <c r="G6" s="2">
+      <c r="L6" s="1">
         <f>50</f>
         <v>50</v>
       </c>
-      <c r="H6" s="2">
-        <v>1.0702229999999999</v>
-      </c>
-      <c r="I6" s="2">
-        <v>1.336524</v>
-      </c>
-      <c r="J6" s="3">
-        <v>43822</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L6" s="2">
-        <f>10^((LOG(AVERAGE(H6:I6)-blank!$G$2, 10)-blank!$L$2)/blank!$M$2) * F6</f>
-        <v>2804.7667980957017</v>
-      </c>
-      <c r="M6" s="2">
-        <f t="shared" si="0"/>
-        <v>140.23833990478508</v>
-      </c>
-      <c r="N6" s="2"/>
+      <c r="M6" s="1" t="e">
+        <f>10^((LOG(AVERAGE(I6:J6)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N6" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O6" s="1"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <f ca="1">Blank!A$2</f>
+        <v>43832</v>
+      </c>
+      <c r="B7" s="2" t="str">
+        <f>Blank!B$2</f>
+        <v>Marlene</v>
+      </c>
+      <c r="C7" s="2" t="str">
+        <f>Blank!C$2</f>
+        <v>MRAP2</v>
+      </c>
+      <c r="D7" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Vide</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Control</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="2">
+      <c r="H7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1">
         <v>500</v>
       </c>
-      <c r="G7" s="2">
+      <c r="L7" s="1">
         <f>50</f>
         <v>50</v>
       </c>
-      <c r="H7" s="2">
-        <v>1.1440079999999999</v>
-      </c>
-      <c r="I7" s="2">
-        <v>1.090497</v>
-      </c>
-      <c r="J7" s="3">
-        <v>43822</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L7" s="2">
-        <f>10^((LOG(AVERAGE(H7:I7)-blank!$G$2, 10)-blank!$L$2)/blank!$M$2) * F7</f>
-        <v>2594.5866558980501</v>
-      </c>
-      <c r="M7" s="2">
-        <f t="shared" si="0"/>
-        <v>129.72933279490252</v>
-      </c>
-      <c r="N7" s="2"/>
+      <c r="M7" s="1" t="e">
+        <f>10^((LOG(AVERAGE(I7:J7)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N7" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O7" s="1"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <f ca="1">Blank!A$2</f>
+        <v>43832</v>
+      </c>
+      <c r="B8" s="5" t="str">
+        <f>Blank!B$2</f>
+        <v>Marlene</v>
+      </c>
+      <c r="C8" s="5" t="str">
+        <f>Blank!C$2</f>
+        <v>MRAP2</v>
+      </c>
+      <c r="D8" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Vide</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Control</v>
+      </c>
+      <c r="G8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="H8" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8">
+        <v>16</v>
+      </c>
+      <c r="L8">
+        <v>100</v>
+      </c>
+      <c r="M8" s="4" t="e">
+        <f>10^((LOG(AVERAGE(I8:J8)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K8</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N8" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O8" t="e">
+        <f t="shared" ref="O8:O13" si="3">N8/(N2+N8+N14) * 100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <f ca="1">Blank!A$2</f>
+        <v>43832</v>
+      </c>
+      <c r="B9" s="5" t="str">
+        <f>Blank!B$2</f>
+        <v>Marlene</v>
+      </c>
+      <c r="C9" s="5" t="str">
+        <f>Blank!C$2</f>
+        <v>MRAP2</v>
+      </c>
+      <c r="D9" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Vide</v>
+      </c>
+      <c r="E9" t="s">
         <v>9</v>
       </c>
-      <c r="D8" t="s">
+      <c r="F9" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Control</v>
+      </c>
+      <c r="G9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" t="s">
         <v>28</v>
       </c>
-      <c r="E8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8">
+      <c r="K9">
         <v>16</v>
       </c>
-      <c r="G8">
+      <c r="L9">
         <v>100</v>
       </c>
-      <c r="H8">
-        <v>0.30243999999999999</v>
-      </c>
-      <c r="I8">
-        <v>0.3103185</v>
-      </c>
-      <c r="J8" s="1">
-        <v>43822</v>
-      </c>
-      <c r="K8" t="s">
-        <v>14</v>
-      </c>
-      <c r="L8" s="5">
-        <f>10^((LOG(AVERAGE(H8:I8)-blank!$G$2, 10)-blank!$L$2)/blank!$M$2) * F8</f>
-        <v>13.390694618732406</v>
-      </c>
-      <c r="M8">
-        <f t="shared" si="0"/>
-        <v>1.3390694618732406</v>
-      </c>
-      <c r="N8">
-        <f t="shared" ref="N8:N13" si="1">M8/(M2+M8+M14) * 100</f>
-        <v>0.61588634801229736</v>
+      <c r="M9" s="4" t="e">
+        <f>10^((LOG(AVERAGE(I9:J9)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K9</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N9" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <f ca="1">Blank!A$2</f>
+        <v>43832</v>
+      </c>
+      <c r="B10" s="5" t="str">
+        <f>Blank!B$2</f>
+        <v>Marlene</v>
+      </c>
+      <c r="C10" s="5" t="str">
+        <f>Blank!C$2</f>
+        <v>MRAP2</v>
+      </c>
+      <c r="D10" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Vide</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Control</v>
+      </c>
+      <c r="G10" t="s">
         <v>6</v>
       </c>
-      <c r="B9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="H10" t="s">
+        <v>28</v>
+      </c>
+      <c r="K10">
+        <v>16</v>
+      </c>
+      <c r="L10">
+        <v>100</v>
+      </c>
+      <c r="M10" s="4" t="e">
+        <f>10^((LOG(AVERAGE(I10:J10)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K10</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N10" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O10" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <f ca="1">Blank!A$2</f>
+        <v>43832</v>
+      </c>
+      <c r="B11" s="5" t="str">
+        <f>Blank!B$2</f>
+        <v>Marlene</v>
+      </c>
+      <c r="C11" s="5" t="str">
+        <f>Blank!C$2</f>
+        <v>MRAP2</v>
+      </c>
+      <c r="D11" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Vide</v>
+      </c>
+      <c r="E11" t="s">
         <v>9</v>
       </c>
-      <c r="D9" t="s">
+      <c r="F11" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Control</v>
+      </c>
+      <c r="G11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" t="s">
+        <v>29</v>
+      </c>
+      <c r="K11">
+        <v>16</v>
+      </c>
+      <c r="L11">
+        <v>100</v>
+      </c>
+      <c r="M11" s="4" t="e">
+        <f>10^((LOG(AVERAGE(I11:J11)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K11</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N11" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O11" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <f ca="1">Blank!A$2</f>
+        <v>43832</v>
+      </c>
+      <c r="B12" s="5" t="str">
+        <f>Blank!B$2</f>
+        <v>Marlene</v>
+      </c>
+      <c r="C12" s="5" t="str">
+        <f>Blank!C$2</f>
+        <v>MRAP2</v>
+      </c>
+      <c r="D12" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Vide</v>
+      </c>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Control</v>
+      </c>
+      <c r="G12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" t="s">
+        <v>29</v>
+      </c>
+      <c r="K12">
+        <v>16</v>
+      </c>
+      <c r="L12">
+        <v>100</v>
+      </c>
+      <c r="M12" s="4" t="e">
+        <f>10^((LOG(AVERAGE(I12:J12)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K12</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N12" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O12" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <f ca="1">Blank!A$2</f>
+        <v>43832</v>
+      </c>
+      <c r="B13" s="5" t="str">
+        <f>Blank!B$2</f>
+        <v>Marlene</v>
+      </c>
+      <c r="C13" s="5" t="str">
+        <f>Blank!C$2</f>
+        <v>MRAP2</v>
+      </c>
+      <c r="D13" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Vide</v>
+      </c>
+      <c r="E13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Control</v>
+      </c>
+      <c r="G13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" t="s">
+        <v>29</v>
+      </c>
+      <c r="K13">
+        <v>16</v>
+      </c>
+      <c r="L13">
+        <v>100</v>
+      </c>
+      <c r="M13" s="4" t="e">
+        <f>10^((LOG(AVERAGE(I13:J13)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K13</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N13" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O13" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <f ca="1">Blank!A$2</f>
+        <v>43832</v>
+      </c>
+      <c r="B14" s="2" t="str">
+        <f>Blank!B$2</f>
+        <v>Marlene</v>
+      </c>
+      <c r="C14" s="2" t="str">
+        <f>Blank!C$2</f>
+        <v>MRAP2</v>
+      </c>
+      <c r="D14" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Vide</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Control</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9">
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1">
         <v>16</v>
       </c>
-      <c r="G9">
+      <c r="L14" s="1">
         <v>100</v>
       </c>
-      <c r="H9">
-        <v>0.41865590000000003</v>
-      </c>
-      <c r="I9">
-        <v>0.36794650000000001</v>
-      </c>
-      <c r="J9" s="1">
-        <v>43822</v>
-      </c>
-      <c r="K9" t="s">
-        <v>14</v>
-      </c>
-      <c r="L9" s="5">
-        <f>10^((LOG(AVERAGE(H9:I9)-blank!$G$2, 10)-blank!$L$2)/blank!$M$2) * F9</f>
-        <v>21.897188574944852</v>
-      </c>
-      <c r="M9">
-        <f t="shared" si="0"/>
-        <v>2.1897188574944852</v>
-      </c>
-      <c r="N9">
+      <c r="M14" s="1" t="e">
+        <f>10^((LOG(AVERAGE(I14:J14)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K14</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N14" s="1" t="e">
         <f t="shared" si="1"/>
-        <v>1.1666975469462335</v>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O14" s="1" t="e">
+        <f t="shared" ref="O14:O19" si="4">N14/(N2+N14) * 100</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" t="s">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <f ca="1">Blank!A$2</f>
+        <v>43832</v>
+      </c>
+      <c r="B15" s="2" t="str">
+        <f>Blank!B$2</f>
+        <v>Marlene</v>
+      </c>
+      <c r="C15" s="2" t="str">
+        <f>Blank!C$2</f>
+        <v>MRAP2</v>
+      </c>
+      <c r="D15" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Vide</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Control</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10">
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1">
         <v>16</v>
       </c>
-      <c r="G10">
+      <c r="L15" s="1">
         <v>100</v>
       </c>
-      <c r="H10">
-        <v>0.30363289999999998</v>
-      </c>
-      <c r="I10">
-        <v>0.33441270000000001</v>
-      </c>
-      <c r="J10" s="1">
-        <v>43822</v>
-      </c>
-      <c r="K10" t="s">
-        <v>14</v>
-      </c>
-      <c r="L10" s="5">
-        <f>10^((LOG(AVERAGE(H10:I10)-blank!$G$2, 10)-blank!$L$2)/blank!$M$2) * F10</f>
-        <v>14.667307994999781</v>
-      </c>
-      <c r="M10">
-        <f t="shared" si="0"/>
-        <v>1.4667307994999783</v>
-      </c>
-      <c r="N10">
+      <c r="M15" s="1" t="e">
+        <f>10^((LOG(AVERAGE(I15:J15)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K15</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N15" s="1" t="e">
         <f t="shared" si="1"/>
-        <v>0.95717999641792495</v>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O15" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <f ca="1">Blank!A$2</f>
+        <v>43832</v>
+      </c>
+      <c r="B16" s="2" t="str">
+        <f>Blank!B$2</f>
+        <v>Marlene</v>
+      </c>
+      <c r="C16" s="2" t="str">
+        <f>Blank!C$2</f>
+        <v>MRAP2</v>
+      </c>
+      <c r="D16" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Vide</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Control</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11">
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1">
         <v>16</v>
       </c>
-      <c r="G11">
+      <c r="L16" s="1">
         <v>100</v>
       </c>
-      <c r="H11">
-        <v>0.57026480000000002</v>
-      </c>
-      <c r="I11">
-        <v>0.58732139999999999</v>
-      </c>
-      <c r="J11" s="1">
-        <v>43822</v>
-      </c>
-      <c r="K11" t="s">
-        <v>14</v>
-      </c>
-      <c r="L11" s="5">
-        <f>10^((LOG(AVERAGE(H11:I11)-blank!$G$2, 10)-blank!$L$2)/blank!$M$2) * F11</f>
-        <v>38.720638725461406</v>
-      </c>
-      <c r="M11">
-        <f t="shared" si="0"/>
-        <v>3.8720638725461409</v>
-      </c>
-      <c r="N11">
+      <c r="M16" s="1" t="e">
+        <f>10^((LOG(AVERAGE(I16:J16)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K16</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N16" s="1" t="e">
         <f t="shared" si="1"/>
-        <v>2.2181342142340736</v>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O16" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <f ca="1">Blank!A$2</f>
+        <v>43832</v>
+      </c>
+      <c r="B17" s="2" t="str">
+        <f>Blank!B$2</f>
+        <v>Marlene</v>
+      </c>
+      <c r="C17" s="2" t="str">
+        <f>Blank!C$2</f>
+        <v>MRAP2</v>
+      </c>
+      <c r="D17" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Vide</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Control</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1">
         <v>16</v>
       </c>
-      <c r="G12">
+      <c r="L17" s="1">
         <v>100</v>
       </c>
-      <c r="H12">
-        <v>0.57411999999999996</v>
-      </c>
-      <c r="I12">
-        <v>0.39066380000000001</v>
-      </c>
-      <c r="J12" s="1">
-        <v>43822</v>
-      </c>
-      <c r="K12" t="s">
-        <v>14</v>
-      </c>
-      <c r="L12" s="5">
-        <f>10^((LOG(AVERAGE(H12:I12)-blank!$G$2, 10)-blank!$L$2)/blank!$M$2) * F12</f>
-        <v>30.144542568497737</v>
-      </c>
-      <c r="M12">
-        <f t="shared" si="0"/>
-        <v>3.0144542568497741</v>
-      </c>
-      <c r="N12">
+      <c r="M17" s="1" t="e">
+        <f>10^((LOG(AVERAGE(I17:J17)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K17</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N17" s="1" t="e">
         <f t="shared" si="1"/>
-        <v>1.9766195674561498</v>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O17" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <f ca="1">Blank!A$2</f>
+        <v>43832</v>
+      </c>
+      <c r="B18" s="2" t="str">
+        <f>Blank!B$2</f>
+        <v>Marlene</v>
+      </c>
+      <c r="C18" s="2" t="str">
+        <f>Blank!C$2</f>
+        <v>MRAP2</v>
+      </c>
+      <c r="D18" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Vide</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Control</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1">
         <v>16</v>
       </c>
-      <c r="G13">
+      <c r="L18" s="1">
         <v>100</v>
       </c>
-      <c r="H13">
-        <v>0.36290929999999999</v>
-      </c>
-      <c r="I13">
-        <v>0.37662639999999997</v>
-      </c>
-      <c r="J13" s="1">
-        <v>43822</v>
-      </c>
-      <c r="K13" t="s">
-        <v>14</v>
-      </c>
-      <c r="L13" s="5">
-        <f>10^((LOG(AVERAGE(H13:I13)-blank!$G$2, 10)-blank!$L$2)/blank!$M$2) * F13</f>
-        <v>19.649210501026968</v>
-      </c>
-      <c r="M13">
-        <f t="shared" si="0"/>
-        <v>1.9649210501026968</v>
-      </c>
-      <c r="N13">
+      <c r="M18" s="1" t="e">
+        <f>10^((LOG(AVERAGE(I18:J18)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K18</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N18" s="1" t="e">
         <f t="shared" si="1"/>
-        <v>1.3843648194198503</v>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O18" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="2" t="s">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <f ca="1">Blank!A$2</f>
+        <v>43832</v>
+      </c>
+      <c r="B19" s="2" t="str">
+        <f>Blank!B$2</f>
+        <v>Marlene</v>
+      </c>
+      <c r="C19" s="2" t="str">
+        <f>Blank!C$2</f>
+        <v>MRAP2</v>
+      </c>
+      <c r="D19" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Vide</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" s="2">
+      <c r="F19" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Control</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1">
         <v>16</v>
       </c>
-      <c r="G14" s="2">
+      <c r="L19" s="1">
         <v>100</v>
       </c>
-      <c r="H14" s="2">
-        <v>0.4769813</v>
-      </c>
-      <c r="I14" s="2">
-        <v>0.52578389999999997</v>
-      </c>
-      <c r="J14" s="3">
-        <v>43822</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L14" s="2">
-        <f>10^((LOG(AVERAGE(H14:I14)-blank!$G$2, 10)-blank!$L$2)/blank!$M$2) * F14</f>
-        <v>31.858735060091163</v>
-      </c>
-      <c r="M14" s="2">
-        <f t="shared" si="0"/>
-        <v>3.1858735060091163</v>
-      </c>
-      <c r="N14" s="2">
-        <f t="shared" ref="N14:N19" si="2">M14/(M2+M14) * 100</f>
-        <v>1.4743786420252232</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="2">
-        <v>16</v>
-      </c>
-      <c r="G15" s="2">
-        <v>100</v>
-      </c>
-      <c r="H15" s="2">
-        <v>0.45485199999999998</v>
-      </c>
-      <c r="I15" s="2">
-        <v>0.4568622</v>
-      </c>
-      <c r="J15" s="3">
-        <v>43822</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L15" s="2">
-        <f>10^((LOG(AVERAGE(H15:I15)-blank!$G$2, 10)-blank!$L$2)/blank!$M$2) * F15</f>
-        <v>27.725874023566195</v>
-      </c>
-      <c r="M15" s="2">
-        <f t="shared" si="0"/>
-        <v>2.7725874023566197</v>
-      </c>
-      <c r="N15" s="2">
-        <f t="shared" si="2"/>
-        <v>1.4946925319317241</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16" s="2">
-        <v>16</v>
-      </c>
-      <c r="G16" s="2">
-        <v>100</v>
-      </c>
-      <c r="H16" s="2">
-        <v>0.38066240000000001</v>
-      </c>
-      <c r="I16" s="2">
-        <v>0.39132929999999999</v>
-      </c>
-      <c r="J16" s="3">
-        <v>43822</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L16" s="2">
-        <f>10^((LOG(AVERAGE(H16:I16)-blank!$G$2, 10)-blank!$L$2)/blank!$M$2) * F16</f>
-        <v>21.203007732622503</v>
-      </c>
-      <c r="M16" s="2">
-        <f t="shared" si="0"/>
-        <v>2.1203007732622505</v>
-      </c>
-      <c r="N16" s="2">
-        <f t="shared" si="2"/>
-        <v>1.3970684228067738</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F17" s="2">
-        <v>16</v>
-      </c>
-      <c r="G17" s="2">
-        <v>100</v>
-      </c>
-      <c r="H17" s="2">
-        <v>1.0478499999999999</v>
-      </c>
-      <c r="I17" s="2">
-        <v>1.1635869999999999</v>
-      </c>
-      <c r="J17" s="3">
-        <v>43822</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L17" s="2">
-        <f>10^((LOG(AVERAGE(H17:I17)-blank!$G$2, 10)-blank!$L$2)/blank!$M$2) * F17</f>
-        <v>82.120264081458146</v>
-      </c>
-      <c r="M17" s="2">
-        <f t="shared" si="0"/>
-        <v>8.2120264081458156</v>
-      </c>
-      <c r="N17" s="2">
-        <f t="shared" si="2"/>
-        <v>4.8110218081895804</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F18" s="2">
-        <v>16</v>
-      </c>
-      <c r="G18" s="2">
-        <v>100</v>
-      </c>
-      <c r="H18" s="2">
-        <v>1.211946</v>
-      </c>
-      <c r="I18" s="2">
-        <v>1.266405</v>
-      </c>
-      <c r="J18" s="3">
-        <v>43822</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L18" s="2">
-        <f>10^((LOG(AVERAGE(H18:I18)-blank!$G$2, 10)-blank!$L$2)/blank!$M$2) * F18</f>
-        <v>92.527413739303654</v>
-      </c>
-      <c r="M18" s="2">
-        <f t="shared" si="0"/>
-        <v>9.2527413739303661</v>
-      </c>
-      <c r="N18" s="2">
-        <f t="shared" si="2"/>
-        <v>6.1894939114657221</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F19" s="2">
-        <v>16</v>
-      </c>
-      <c r="G19" s="2">
-        <v>100</v>
-      </c>
-      <c r="H19" s="2">
-        <v>1.3886689999999999</v>
-      </c>
-      <c r="I19" s="2">
-        <v>1.3474809999999999</v>
-      </c>
-      <c r="J19" s="3">
-        <v>43822</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L19" s="2">
-        <f>10^((LOG(AVERAGE(H19:I19)-blank!$G$2, 10)-blank!$L$2)/blank!$M$2) * F19</f>
-        <v>102.42396273432612</v>
-      </c>
-      <c r="M19" s="2">
-        <f t="shared" si="0"/>
-        <v>10.242396273432613</v>
-      </c>
-      <c r="N19" s="2">
-        <f t="shared" si="2"/>
-        <v>7.3174749941341419</v>
+      <c r="M19" s="1" t="e">
+        <f>10^((LOG(AVERAGE(I19:J19)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K19</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N19" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O19" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
@@ -4057,897 +4850,1901 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="11.42578125" customWidth="1"/>
-    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="0" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="15" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="0" hidden="1" customWidth="1"/>
+    <col min="5" max="6" width="11.42578125" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" customWidth="1"/>
+    <col min="11" max="11" width="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="29.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="H1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <f ca="1">Blank!A$2</f>
+        <v>43832</v>
+      </c>
+      <c r="B2" s="2" t="str">
+        <f>Blank!B$2</f>
+        <v>Marlene</v>
+      </c>
+      <c r="C2" s="2" t="str">
+        <f>Blank!C$2</f>
+        <v>MRAP2</v>
+      </c>
+      <c r="D2" s="1" t="str">
+        <f t="shared" ref="D2:D19" ca="1" si="0">RIGHT(CELL("nomfichier",A1),LEN(CELL("nomfichier",A1))-SEARCH("]",CELL("nomfichier",A1)))</f>
+        <v>CT</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="2">
+      <c r="H2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1">
         <v>500</v>
       </c>
-      <c r="G2" s="2">
+      <c r="L2" s="1">
         <f>50</f>
         <v>50</v>
       </c>
-      <c r="H2" s="2">
-        <v>0.67486239999999997</v>
-      </c>
-      <c r="I2" s="2">
-        <v>1.3307739999999999</v>
-      </c>
-      <c r="J2" s="3">
-        <v>43822</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L2" s="2">
-        <f>10^((LOG(AVERAGE(H2:I2)-blank!$G$2, 10)-blank!$L$2)/blank!$M$2) * F2</f>
-        <v>2311.4903394959047</v>
-      </c>
-      <c r="M2" s="2">
-        <f t="shared" ref="M2:M19" si="0">(G2/10^3 * L2)</f>
-        <v>115.57451697479524</v>
-      </c>
-      <c r="N2" s="2"/>
+      <c r="M2" s="1" t="e">
+        <f>10^((LOG(AVERAGE(I2:J2)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K2</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N2" s="1" t="e">
+        <f t="shared" ref="N2:N19" si="1">(L2/10^3 * M2)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <f ca="1">Blank!A$2</f>
+        <v>43832</v>
+      </c>
+      <c r="B3" s="2" t="str">
+        <f>Blank!B$2</f>
+        <v>Marlene</v>
+      </c>
+      <c r="C3" s="2" t="str">
+        <f>Blank!C$2</f>
+        <v>MRAP2</v>
+      </c>
+      <c r="D3" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>CT</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="2">
+      <c r="H3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1">
         <v>500</v>
       </c>
-      <c r="G3" s="2">
+      <c r="L3" s="1">
         <f>50</f>
         <v>50</v>
       </c>
-      <c r="H3" s="2">
-        <v>0.43468059999999997</v>
-      </c>
-      <c r="I3" s="2">
-        <v>0.86742549999999996</v>
-      </c>
-      <c r="J3" s="3">
-        <v>43822</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L3" s="2">
-        <f>10^((LOG(AVERAGE(H3:I3)-blank!$G$2, 10)-blank!$L$2)/blank!$M$2) * F3</f>
-        <v>1405.4086486813933</v>
-      </c>
-      <c r="M3" s="2">
-        <f t="shared" si="0"/>
-        <v>70.270432434069662</v>
-      </c>
-      <c r="N3" s="2"/>
+      <c r="M3" s="1" t="e">
+        <f>10^((LOG(AVERAGE(I3:J3)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N3" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <f ca="1">Blank!A$2</f>
+        <v>43832</v>
+      </c>
+      <c r="B4" s="2" t="str">
+        <f>Blank!B$2</f>
+        <v>Marlene</v>
+      </c>
+      <c r="C4" s="2" t="str">
+        <f>Blank!C$2</f>
+        <v>MRAP2</v>
+      </c>
+      <c r="D4" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>CT</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="2">
+      <c r="H4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1">
         <v>500</v>
       </c>
-      <c r="G4" s="2">
+      <c r="L4" s="1">
         <f>50</f>
         <v>50</v>
       </c>
-      <c r="H4" s="2">
-        <v>0.78977799999999998</v>
-      </c>
-      <c r="I4" s="2">
-        <v>0.50536639999999999</v>
-      </c>
-      <c r="J4" s="3">
-        <v>43822</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L4" s="2">
-        <f>10^((LOG(AVERAGE(H4:I4)-blank!$G$2, 10)-blank!$L$2)/blank!$M$2) * F4</f>
-        <v>1396.0885517089398</v>
-      </c>
-      <c r="M4" s="2">
-        <f t="shared" si="0"/>
-        <v>69.804427585446987</v>
-      </c>
-      <c r="N4" s="2"/>
+      <c r="M4" s="1" t="e">
+        <f>10^((LOG(AVERAGE(I4:J4)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K4</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N4" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O4" s="1"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <f ca="1">Blank!A$2</f>
+        <v>43832</v>
+      </c>
+      <c r="B5" s="2" t="str">
+        <f>Blank!B$2</f>
+        <v>Marlene</v>
+      </c>
+      <c r="C5" s="2" t="str">
+        <f>Blank!C$2</f>
+        <v>MRAP2</v>
+      </c>
+      <c r="D5" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>CT</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="2">
+      <c r="H5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1">
         <v>500</v>
       </c>
-      <c r="G5" s="2">
+      <c r="L5" s="1">
         <f>50</f>
         <v>50</v>
       </c>
-      <c r="H5" s="2">
-        <v>1.0481180000000001</v>
-      </c>
-      <c r="I5" s="2">
-        <v>1.162093</v>
-      </c>
-      <c r="J5" s="3">
-        <v>43822</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L5" s="2">
-        <f>10^((LOG(AVERAGE(H5:I5)-blank!$G$2, 10)-blank!$L$2)/blank!$M$2) * F5</f>
-        <v>2564.7514436728839</v>
-      </c>
-      <c r="M5" s="2">
-        <f t="shared" si="0"/>
-        <v>128.2375721836442</v>
-      </c>
-      <c r="N5" s="2"/>
+      <c r="M5" s="1" t="e">
+        <f>10^((LOG(AVERAGE(I5:J5)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K5</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N5" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O5" s="1"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <f ca="1">Blank!A$2</f>
+        <v>43832</v>
+      </c>
+      <c r="B6" s="2" t="str">
+        <f>Blank!B$2</f>
+        <v>Marlene</v>
+      </c>
+      <c r="C6" s="2" t="str">
+        <f>Blank!C$2</f>
+        <v>MRAP2</v>
+      </c>
+      <c r="D6" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>CT</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="2">
+      <c r="H6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1">
         <v>500</v>
       </c>
-      <c r="G6" s="2">
+      <c r="L6" s="1">
         <f>50</f>
         <v>50</v>
       </c>
-      <c r="H6" s="2">
-        <v>0.90987790000000002</v>
-      </c>
-      <c r="I6" s="2">
-        <v>0.68537210000000004</v>
-      </c>
-      <c r="J6" s="3">
-        <v>43822</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L6" s="2">
-        <f>10^((LOG(AVERAGE(H6:I6)-blank!$G$2, 10)-blank!$L$2)/blank!$M$2) * F6</f>
-        <v>1790.7327970515287</v>
-      </c>
-      <c r="M6" s="2">
-        <f t="shared" si="0"/>
-        <v>89.536639852576442</v>
-      </c>
-      <c r="N6" s="2"/>
+      <c r="M6" s="1" t="e">
+        <f>10^((LOG(AVERAGE(I6:J6)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N6" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O6" s="1"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <f ca="1">Blank!A$2</f>
+        <v>43832</v>
+      </c>
+      <c r="B7" s="2" t="str">
+        <f>Blank!B$2</f>
+        <v>Marlene</v>
+      </c>
+      <c r="C7" s="2" t="str">
+        <f>Blank!C$2</f>
+        <v>MRAP2</v>
+      </c>
+      <c r="D7" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>CT</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="2">
+      <c r="H7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1">
         <v>500</v>
       </c>
-      <c r="G7" s="2">
+      <c r="L7" s="1">
         <f>50</f>
         <v>50</v>
       </c>
-      <c r="H7" s="2">
-        <v>0.21075260000000001</v>
-      </c>
-      <c r="I7" s="2">
-        <v>0.2179498</v>
-      </c>
-      <c r="J7" s="3">
-        <v>43822</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L7" s="2">
-        <f>10^((LOG(AVERAGE(H7:I7)-blank!$G$2, 10)-blank!$L$2)/blank!$M$2) * F7</f>
-        <v>103.41299380587688</v>
-      </c>
-      <c r="M7" s="2">
-        <f t="shared" si="0"/>
-        <v>5.1706496902938444</v>
-      </c>
-      <c r="N7" s="2"/>
+      <c r="M7" s="1" t="e">
+        <f>10^((LOG(AVERAGE(I7:J7)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N7" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O7" s="1"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <f ca="1">Blank!A$2</f>
+        <v>43832</v>
+      </c>
+      <c r="B8" s="5" t="str">
+        <f>Blank!B$2</f>
+        <v>Marlene</v>
+      </c>
+      <c r="C8" s="5" t="str">
+        <f>Blank!C$2</f>
+        <v>MRAP2</v>
+      </c>
+      <c r="D8" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>CT</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="H8" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8">
+        <v>16</v>
+      </c>
+      <c r="L8">
+        <v>100</v>
+      </c>
+      <c r="M8" s="4" t="e">
+        <f>10^((LOG(AVERAGE(I8:J8)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K8</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N8" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O8" t="e">
+        <f t="shared" ref="O8:O13" si="2">N8/(N2+N8+N14) * 100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <f ca="1">Blank!A$2</f>
+        <v>43832</v>
+      </c>
+      <c r="B9" s="5" t="str">
+        <f>Blank!B$2</f>
+        <v>Marlene</v>
+      </c>
+      <c r="C9" s="5" t="str">
+        <f>Blank!C$2</f>
+        <v>MRAP2</v>
+      </c>
+      <c r="D9" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>CT</v>
+      </c>
+      <c r="E9" t="s">
         <v>9</v>
       </c>
-      <c r="D8" t="s">
+      <c r="F9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9">
+        <v>16</v>
+      </c>
+      <c r="L9">
+        <v>100</v>
+      </c>
+      <c r="M9" s="4" t="e">
+        <f>10^((LOG(AVERAGE(I9:J9)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K9</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N9" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O9" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <f ca="1">Blank!A$2</f>
+        <v>43832</v>
+      </c>
+      <c r="B10" s="5" t="str">
+        <f>Blank!B$2</f>
+        <v>Marlene</v>
+      </c>
+      <c r="C10" s="5" t="str">
+        <f>Blank!C$2</f>
+        <v>MRAP2</v>
+      </c>
+      <c r="D10" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>CT</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" t="s">
+        <v>28</v>
+      </c>
+      <c r="K10">
+        <v>16</v>
+      </c>
+      <c r="L10">
+        <v>100</v>
+      </c>
+      <c r="M10" s="4" t="e">
+        <f>10^((LOG(AVERAGE(I10:J10)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K10</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N10" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O10" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <f ca="1">Blank!A$2</f>
+        <v>43832</v>
+      </c>
+      <c r="B11" s="5" t="str">
+        <f>Blank!B$2</f>
+        <v>Marlene</v>
+      </c>
+      <c r="C11" s="5" t="str">
+        <f>Blank!C$2</f>
+        <v>MRAP2</v>
+      </c>
+      <c r="D11" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>CT</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" t="s">
+        <v>29</v>
+      </c>
+      <c r="K11">
+        <v>16</v>
+      </c>
+      <c r="L11">
+        <v>100</v>
+      </c>
+      <c r="M11" s="4" t="e">
+        <f>10^((LOG(AVERAGE(I11:J11)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K11</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N11" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O11" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <f ca="1">Blank!A$2</f>
+        <v>43832</v>
+      </c>
+      <c r="B12" s="5" t="str">
+        <f>Blank!B$2</f>
+        <v>Marlene</v>
+      </c>
+      <c r="C12" s="5" t="str">
+        <f>Blank!C$2</f>
+        <v>MRAP2</v>
+      </c>
+      <c r="D12" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>CT</v>
+      </c>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" t="s">
+        <v>29</v>
+      </c>
+      <c r="K12">
+        <v>16</v>
+      </c>
+      <c r="L12">
+        <v>100</v>
+      </c>
+      <c r="M12" s="4" t="e">
+        <f>10^((LOG(AVERAGE(I12:J12)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K12</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N12" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O12" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <f ca="1">Blank!A$2</f>
+        <v>43832</v>
+      </c>
+      <c r="B13" s="5" t="str">
+        <f>Blank!B$2</f>
+        <v>Marlene</v>
+      </c>
+      <c r="C13" s="5" t="str">
+        <f>Blank!C$2</f>
+        <v>MRAP2</v>
+      </c>
+      <c r="D13" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>CT</v>
+      </c>
+      <c r="E13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" t="s">
+        <v>29</v>
+      </c>
+      <c r="K13">
+        <v>16</v>
+      </c>
+      <c r="L13">
+        <v>100</v>
+      </c>
+      <c r="M13" s="4" t="e">
+        <f>10^((LOG(AVERAGE(I13:J13)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K13</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N13" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O13" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <f ca="1">Blank!A$2</f>
+        <v>43832</v>
+      </c>
+      <c r="B14" s="2" t="str">
+        <f>Blank!B$2</f>
+        <v>Marlene</v>
+      </c>
+      <c r="C14" s="2" t="str">
+        <f>Blank!C$2</f>
+        <v>MRAP2</v>
+      </c>
+      <c r="D14" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>CT</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1">
+        <v>16</v>
+      </c>
+      <c r="L14" s="1">
+        <v>100</v>
+      </c>
+      <c r="M14" s="1" t="e">
+        <f>10^((LOG(AVERAGE(I14:J14)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K14</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N14" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O14" s="1" t="e">
+        <f t="shared" ref="O14:O19" si="3">N14/(N2+N14) * 100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <f ca="1">Blank!A$2</f>
+        <v>43832</v>
+      </c>
+      <c r="B15" s="2" t="str">
+        <f>Blank!B$2</f>
+        <v>Marlene</v>
+      </c>
+      <c r="C15" s="2" t="str">
+        <f>Blank!C$2</f>
+        <v>MRAP2</v>
+      </c>
+      <c r="D15" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>CT</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1">
+        <v>16</v>
+      </c>
+      <c r="L15" s="1">
+        <v>100</v>
+      </c>
+      <c r="M15" s="1" t="e">
+        <f>10^((LOG(AVERAGE(I15:J15)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K15</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N15" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O15" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <f ca="1">Blank!A$2</f>
+        <v>43832</v>
+      </c>
+      <c r="B16" s="2" t="str">
+        <f>Blank!B$2</f>
+        <v>Marlene</v>
+      </c>
+      <c r="C16" s="2" t="str">
+        <f>Blank!C$2</f>
+        <v>MRAP2</v>
+      </c>
+      <c r="D16" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>CT</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1">
+        <v>16</v>
+      </c>
+      <c r="L16" s="1">
+        <v>100</v>
+      </c>
+      <c r="M16" s="1" t="e">
+        <f>10^((LOG(AVERAGE(I16:J16)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K16</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N16" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O16" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <f ca="1">Blank!A$2</f>
+        <v>43832</v>
+      </c>
+      <c r="B17" s="2" t="str">
+        <f>Blank!B$2</f>
+        <v>Marlene</v>
+      </c>
+      <c r="C17" s="2" t="str">
+        <f>Blank!C$2</f>
+        <v>MRAP2</v>
+      </c>
+      <c r="D17" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>CT</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1">
+        <v>16</v>
+      </c>
+      <c r="L17" s="1">
+        <v>100</v>
+      </c>
+      <c r="M17" s="1" t="e">
+        <f>10^((LOG(AVERAGE(I17:J17)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K17</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N17" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O17" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <f ca="1">Blank!A$2</f>
+        <v>43832</v>
+      </c>
+      <c r="B18" s="2" t="str">
+        <f>Blank!B$2</f>
+        <v>Marlene</v>
+      </c>
+      <c r="C18" s="2" t="str">
+        <f>Blank!C$2</f>
+        <v>MRAP2</v>
+      </c>
+      <c r="D18" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>CT</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1">
+        <v>16</v>
+      </c>
+      <c r="L18" s="1">
+        <v>100</v>
+      </c>
+      <c r="M18" s="1" t="e">
+        <f>10^((LOG(AVERAGE(I18:J18)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K18</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N18" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O18" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <f ca="1">Blank!A$2</f>
+        <v>43832</v>
+      </c>
+      <c r="B19" s="2" t="str">
+        <f>Blank!B$2</f>
+        <v>Marlene</v>
+      </c>
+      <c r="C19" s="2" t="str">
+        <f>Blank!C$2</f>
+        <v>MRAP2</v>
+      </c>
+      <c r="D19" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>CT</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1">
+        <v>16</v>
+      </c>
+      <c r="L19" s="1">
+        <v>100</v>
+      </c>
+      <c r="M19" s="1" t="e">
+        <f>10^((LOG(AVERAGE(I19:J19)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K19</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N19" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O19" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O19"/>
+  <sheetViews>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="0" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="15" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="0" hidden="1" customWidth="1"/>
+    <col min="5" max="6" width="11.42578125" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" customWidth="1"/>
+    <col min="11" max="11" width="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="29.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>27</v>
       </c>
+      <c r="I1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <f ca="1">Blank!A$2</f>
+        <v>43832</v>
+      </c>
+      <c r="B2" s="2" t="str">
+        <f>Blank!B$2</f>
+        <v>Marlene</v>
+      </c>
+      <c r="C2" s="2" t="str">
+        <f>Blank!C$2</f>
+        <v>MRAP2</v>
+      </c>
+      <c r="D2" s="1" t="str">
+        <f t="shared" ref="D2:D19" ca="1" si="0">RIGHT(CELL("nomfichier",A7),LEN(CELL("nomfichier",A7))-SEARCH("]",CELL("nomfichier",A7)))</f>
+        <v>MRAP2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1">
+        <v>500</v>
+      </c>
+      <c r="L2" s="1">
+        <f>50</f>
+        <v>50</v>
+      </c>
+      <c r="M2" s="1" t="e">
+        <f>10^((LOG(AVERAGE(I2:J2)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K2</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N2" s="1" t="e">
+        <f t="shared" ref="N2:N19" si="1">(L2/10^3 * M2)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O2" s="1"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <f ca="1">Blank!A$2</f>
+        <v>43832</v>
+      </c>
+      <c r="B3" s="2" t="str">
+        <f>Blank!B$2</f>
+        <v>Marlene</v>
+      </c>
+      <c r="C3" s="2" t="str">
+        <f>Blank!C$2</f>
+        <v>MRAP2</v>
+      </c>
+      <c r="D3" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>MRAP2</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1">
+        <v>500</v>
+      </c>
+      <c r="L3" s="1">
+        <f>50</f>
+        <v>50</v>
+      </c>
+      <c r="M3" s="1" t="e">
+        <f>10^((LOG(AVERAGE(I3:J3)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N3" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O3" s="1"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <f ca="1">Blank!A$2</f>
+        <v>43832</v>
+      </c>
+      <c r="B4" s="2" t="str">
+        <f>Blank!B$2</f>
+        <v>Marlene</v>
+      </c>
+      <c r="C4" s="2" t="str">
+        <f>Blank!C$2</f>
+        <v>MRAP2</v>
+      </c>
+      <c r="D4" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>MRAP2</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1">
+        <v>500</v>
+      </c>
+      <c r="L4" s="1">
+        <f>50</f>
+        <v>50</v>
+      </c>
+      <c r="M4" s="1" t="e">
+        <f>10^((LOG(AVERAGE(I4:J4)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K4</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N4" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O4" s="1"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <f ca="1">Blank!A$2</f>
+        <v>43832</v>
+      </c>
+      <c r="B5" s="2" t="str">
+        <f>Blank!B$2</f>
+        <v>Marlene</v>
+      </c>
+      <c r="C5" s="2" t="str">
+        <f>Blank!C$2</f>
+        <v>MRAP2</v>
+      </c>
+      <c r="D5" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>MRAP2</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1">
+        <v>500</v>
+      </c>
+      <c r="L5" s="1">
+        <f>50</f>
+        <v>50</v>
+      </c>
+      <c r="M5" s="1" t="e">
+        <f>10^((LOG(AVERAGE(I5:J5)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K5</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N5" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O5" s="1"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <f ca="1">Blank!A$2</f>
+        <v>43832</v>
+      </c>
+      <c r="B6" s="2" t="str">
+        <f>Blank!B$2</f>
+        <v>Marlene</v>
+      </c>
+      <c r="C6" s="2" t="str">
+        <f>Blank!C$2</f>
+        <v>MRAP2</v>
+      </c>
+      <c r="D6" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>MRAP2</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1">
+        <v>500</v>
+      </c>
+      <c r="L6" s="1">
+        <f>50</f>
+        <v>50</v>
+      </c>
+      <c r="M6" s="1" t="e">
+        <f>10^((LOG(AVERAGE(I6:J6)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N6" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O6" s="1"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <f ca="1">Blank!A$2</f>
+        <v>43832</v>
+      </c>
+      <c r="B7" s="2" t="str">
+        <f>Blank!B$2</f>
+        <v>Marlene</v>
+      </c>
+      <c r="C7" s="2" t="str">
+        <f>Blank!C$2</f>
+        <v>MRAP2</v>
+      </c>
+      <c r="D7" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>MRAP2</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1">
+        <v>500</v>
+      </c>
+      <c r="L7" s="1">
+        <f>50</f>
+        <v>50</v>
+      </c>
+      <c r="M7" s="1" t="e">
+        <f>10^((LOG(AVERAGE(I7:J7)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N7" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <f ca="1">Blank!A$2</f>
+        <v>43832</v>
+      </c>
+      <c r="B8" s="5" t="str">
+        <f>Blank!B$2</f>
+        <v>Marlene</v>
+      </c>
+      <c r="C8" s="5" t="str">
+        <f>Blank!C$2</f>
+        <v>MRAP2</v>
+      </c>
+      <c r="D8" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>MRAP2</v>
+      </c>
       <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8">
         <v>16</v>
       </c>
-      <c r="F8">
+      <c r="L8">
+        <v>100</v>
+      </c>
+      <c r="M8" s="4" t="e">
+        <f>10^((LOG(AVERAGE(I8:J8)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K8</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N8" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O8" t="e">
+        <f t="shared" ref="O8:O13" si="2">N8/(N2+N8+N14) * 100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <f ca="1">Blank!A$2</f>
+        <v>43832</v>
+      </c>
+      <c r="B9" s="5" t="str">
+        <f>Blank!B$2</f>
+        <v>Marlene</v>
+      </c>
+      <c r="C9" s="5" t="str">
+        <f>Blank!C$2</f>
+        <v>MRAP2</v>
+      </c>
+      <c r="D9" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>MRAP2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9">
         <v>16</v>
       </c>
-      <c r="G8">
+      <c r="L9">
         <v>100</v>
       </c>
-      <c r="H8">
-        <v>0.26056970000000002</v>
-      </c>
-      <c r="I8">
-        <v>0.2872632</v>
-      </c>
-      <c r="J8" s="1">
-        <v>43822</v>
-      </c>
-      <c r="K8" t="s">
-        <v>14</v>
-      </c>
-      <c r="L8" s="5">
-        <f>10^((LOG(AVERAGE(H8:I8)-blank!$G$2, 10)-blank!$L$2)/blank!$M$2) * F8</f>
-        <v>10.026855695362263</v>
-      </c>
-      <c r="M8">
-        <f t="shared" si="0"/>
-        <v>1.0026855695362265</v>
-      </c>
-      <c r="N8">
-        <f t="shared" ref="N8:N13" si="1">M8/(M2+M8+M14) * 100</f>
-        <v>0.83742436039538071</v>
+      <c r="M9" s="4" t="e">
+        <f>10^((LOG(AVERAGE(I9:J9)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K9</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N9" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O9" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <f ca="1">Blank!A$2</f>
+        <v>43832</v>
+      </c>
+      <c r="B10" s="5" t="str">
+        <f>Blank!B$2</f>
+        <v>Marlene</v>
+      </c>
+      <c r="C10" s="5" t="str">
+        <f>Blank!C$2</f>
+        <v>MRAP2</v>
+      </c>
+      <c r="D10" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>MRAP2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" t="s">
         <v>6</v>
       </c>
-      <c r="B9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="H10" t="s">
+        <v>28</v>
+      </c>
+      <c r="K10">
+        <v>16</v>
+      </c>
+      <c r="L10">
+        <v>100</v>
+      </c>
+      <c r="M10" s="4" t="e">
+        <f>10^((LOG(AVERAGE(I10:J10)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K10</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N10" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O10" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <f ca="1">Blank!A$2</f>
+        <v>43832</v>
+      </c>
+      <c r="B11" s="5" t="str">
+        <f>Blank!B$2</f>
+        <v>Marlene</v>
+      </c>
+      <c r="C11" s="5" t="str">
+        <f>Blank!C$2</f>
+        <v>MRAP2</v>
+      </c>
+      <c r="D11" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>MRAP2</v>
+      </c>
+      <c r="E11" t="s">
         <v>9</v>
       </c>
-      <c r="D9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="F11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" t="s">
+        <v>29</v>
+      </c>
+      <c r="K11">
         <v>16</v>
       </c>
-      <c r="F9">
+      <c r="L11">
+        <v>100</v>
+      </c>
+      <c r="M11" s="4" t="e">
+        <f>10^((LOG(AVERAGE(I11:J11)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K11</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N11" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O11" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <f ca="1">Blank!A$2</f>
+        <v>43832</v>
+      </c>
+      <c r="B12" s="5" t="str">
+        <f>Blank!B$2</f>
+        <v>Marlene</v>
+      </c>
+      <c r="C12" s="5" t="str">
+        <f>Blank!C$2</f>
+        <v>MRAP2</v>
+      </c>
+      <c r="D12" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>MRAP2</v>
+      </c>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" t="s">
+        <v>29</v>
+      </c>
+      <c r="K12">
         <v>16</v>
       </c>
-      <c r="G9">
+      <c r="L12">
         <v>100</v>
       </c>
-      <c r="H9">
-        <v>0.28446860000000002</v>
-      </c>
-      <c r="I9">
-        <v>0.2639707</v>
-      </c>
-      <c r="J9" s="1">
-        <v>43822</v>
-      </c>
-      <c r="K9" t="s">
-        <v>14</v>
-      </c>
-      <c r="L9" s="5">
-        <f>10^((LOG(AVERAGE(H9:I9)-blank!$G$2, 10)-blank!$L$2)/blank!$M$2) * F9</f>
-        <v>10.058949012641836</v>
-      </c>
-      <c r="M9">
-        <f t="shared" si="0"/>
-        <v>1.0058949012641836</v>
-      </c>
-      <c r="N9">
+      <c r="M12" s="4" t="e">
+        <f>10^((LOG(AVERAGE(I12:J12)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K12</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N12" t="e">
         <f t="shared" si="1"/>
-        <v>1.3546696010889587</v>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O12" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" t="s">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <f ca="1">Blank!A$2</f>
+        <v>43832</v>
+      </c>
+      <c r="B13" s="5" t="str">
+        <f>Blank!B$2</f>
+        <v>Marlene</v>
+      </c>
+      <c r="C13" s="5" t="str">
+        <f>Blank!C$2</f>
+        <v>MRAP2</v>
+      </c>
+      <c r="D13" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>MRAP2</v>
+      </c>
+      <c r="E13" t="s">
         <v>9</v>
       </c>
-      <c r="D10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="F13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" t="s">
+        <v>29</v>
+      </c>
+      <c r="K13">
         <v>16</v>
       </c>
-      <c r="F10">
+      <c r="L13">
+        <v>100</v>
+      </c>
+      <c r="M13" s="4" t="e">
+        <f>10^((LOG(AVERAGE(I13:J13)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K13</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N13" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O13" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <f ca="1">Blank!A$2</f>
+        <v>43832</v>
+      </c>
+      <c r="B14" s="2" t="str">
+        <f>Blank!B$2</f>
+        <v>Marlene</v>
+      </c>
+      <c r="C14" s="2" t="str">
+        <f>Blank!C$2</f>
+        <v>MRAP2</v>
+      </c>
+      <c r="D14" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>MRAP2</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1">
         <v>16</v>
       </c>
-      <c r="G10">
+      <c r="L14" s="1">
         <v>100</v>
       </c>
-      <c r="H10">
-        <v>0.26273079999999999</v>
-      </c>
-      <c r="I10">
-        <v>0.28073809999999999</v>
-      </c>
-      <c r="J10" s="1">
-        <v>43822</v>
-      </c>
-      <c r="K10" t="s">
-        <v>14</v>
-      </c>
-      <c r="L10" s="5">
-        <f>10^((LOG(AVERAGE(H10:I10)-blank!$G$2, 10)-blank!$L$2)/blank!$M$2) * F10</f>
-        <v>9.7954619034860322</v>
-      </c>
-      <c r="M10">
-        <f t="shared" si="0"/>
-        <v>0.97954619034860324</v>
-      </c>
-      <c r="N10">
+      <c r="M14" s="1" t="e">
+        <f>10^((LOG(AVERAGE(I14:J14)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K14</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N14" s="1" t="e">
         <f t="shared" si="1"/>
-        <v>1.3345534051414905</v>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O14" s="1" t="e">
+        <f t="shared" ref="O14:O19" si="3">N14/(N2+N14) * 100</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" t="s">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <f ca="1">Blank!A$2</f>
+        <v>43832</v>
+      </c>
+      <c r="B15" s="2" t="str">
+        <f>Blank!B$2</f>
+        <v>Marlene</v>
+      </c>
+      <c r="C15" s="2" t="str">
+        <f>Blank!C$2</f>
+        <v>MRAP2</v>
+      </c>
+      <c r="D15" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>MRAP2</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1">
         <v>16</v>
       </c>
-      <c r="F11">
+      <c r="L15" s="1">
+        <v>100</v>
+      </c>
+      <c r="M15" s="1" t="e">
+        <f>10^((LOG(AVERAGE(I15:J15)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K15</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N15" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O15" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <f ca="1">Blank!A$2</f>
+        <v>43832</v>
+      </c>
+      <c r="B16" s="2" t="str">
+        <f>Blank!B$2</f>
+        <v>Marlene</v>
+      </c>
+      <c r="C16" s="2" t="str">
+        <f>Blank!C$2</f>
+        <v>MRAP2</v>
+      </c>
+      <c r="D16" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>MRAP2</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1">
         <v>16</v>
       </c>
-      <c r="G11">
+      <c r="L16" s="1">
         <v>100</v>
       </c>
-      <c r="H11">
-        <v>0.67052080000000003</v>
-      </c>
-      <c r="I11">
-        <v>0.91120219999999996</v>
-      </c>
-      <c r="J11" s="1">
-        <v>43822</v>
-      </c>
-      <c r="K11" t="s">
-        <v>14</v>
-      </c>
-      <c r="L11" s="5">
-        <f>10^((LOG(AVERAGE(H11:I11)-blank!$G$2, 10)-blank!$L$2)/blank!$M$2) * F11</f>
-        <v>56.743325676907247</v>
-      </c>
-      <c r="M11">
-        <f t="shared" si="0"/>
-        <v>5.6743325676907252</v>
-      </c>
-      <c r="N11">
+      <c r="M16" s="1" t="e">
+        <f>10^((LOG(AVERAGE(I16:J16)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K16</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N16" s="1" t="e">
         <f t="shared" si="1"/>
-        <v>3.961466030517522</v>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O16" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" t="s">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <f ca="1">Blank!A$2</f>
+        <v>43832</v>
+      </c>
+      <c r="B17" s="2" t="str">
+        <f>Blank!B$2</f>
+        <v>Marlene</v>
+      </c>
+      <c r="C17" s="2" t="str">
+        <f>Blank!C$2</f>
+        <v>MRAP2</v>
+      </c>
+      <c r="D17" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>MRAP2</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1">
         <v>16</v>
       </c>
-      <c r="F12">
+      <c r="L17" s="1">
+        <v>100</v>
+      </c>
+      <c r="M17" s="1" t="e">
+        <f>10^((LOG(AVERAGE(I17:J17)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K17</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N17" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O17" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <f ca="1">Blank!A$2</f>
+        <v>43832</v>
+      </c>
+      <c r="B18" s="2" t="str">
+        <f>Blank!B$2</f>
+        <v>Marlene</v>
+      </c>
+      <c r="C18" s="2" t="str">
+        <f>Blank!C$2</f>
+        <v>MRAP2</v>
+      </c>
+      <c r="D18" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>MRAP2</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1">
         <v>16</v>
       </c>
-      <c r="G12">
+      <c r="L18" s="1">
         <v>100</v>
       </c>
-      <c r="H12">
-        <v>0.4135143</v>
-      </c>
-      <c r="I12">
-        <v>0.53335030000000005</v>
-      </c>
-      <c r="J12" s="1">
-        <v>43822</v>
-      </c>
-      <c r="K12" t="s">
-        <v>14</v>
-      </c>
-      <c r="L12" s="5">
-        <f>10^((LOG(AVERAGE(H12:I12)-blank!$G$2, 10)-blank!$L$2)/blank!$M$2) * F12</f>
-        <v>29.331044694997075</v>
-      </c>
-      <c r="M12">
-        <f t="shared" si="0"/>
-        <v>2.9331044694997077</v>
-      </c>
-      <c r="N12">
+      <c r="M18" s="1" t="e">
+        <f>10^((LOG(AVERAGE(I18:J18)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K18</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N18" s="1" t="e">
         <f t="shared" si="1"/>
-        <v>2.9016821042340628</v>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O18" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" t="s">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <f ca="1">Blank!A$2</f>
+        <v>43832</v>
+      </c>
+      <c r="B19" s="2" t="str">
+        <f>Blank!B$2</f>
+        <v>Marlene</v>
+      </c>
+      <c r="C19" s="2" t="str">
+        <f>Blank!C$2</f>
+        <v>MRAP2</v>
+      </c>
+      <c r="D19" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>MRAP2</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1">
         <v>16</v>
       </c>
-      <c r="F13">
-        <v>16</v>
-      </c>
-      <c r="G13">
+      <c r="L19" s="1">
         <v>100</v>
       </c>
-      <c r="H13">
-        <v>0.3928507</v>
-      </c>
-      <c r="I13">
-        <v>0.38189240000000002</v>
-      </c>
-      <c r="J13" s="1">
-        <v>43822</v>
-      </c>
-      <c r="K13" t="s">
-        <v>14</v>
-      </c>
-      <c r="L13" s="5">
-        <f>10^((LOG(AVERAGE(H13:I13)-blank!$G$2, 10)-blank!$L$2)/blank!$M$2) * F13</f>
-        <v>21.333974276350574</v>
-      </c>
-      <c r="M13">
-        <f t="shared" si="0"/>
-        <v>2.1333974276350576</v>
-      </c>
-      <c r="N13">
+      <c r="M19" s="1" t="e">
+        <f>10^((LOG(AVERAGE(I19:J19)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K19</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N19" s="1" t="e">
         <f t="shared" si="1"/>
-        <v>12.655698723688655</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14" s="2">
-        <v>16</v>
-      </c>
-      <c r="G14" s="2">
-        <v>100</v>
-      </c>
-      <c r="H14" s="2">
-        <v>0.48273690000000002</v>
-      </c>
-      <c r="I14" s="2">
-        <v>0.51366820000000002</v>
-      </c>
-      <c r="J14" s="3">
-        <v>43822</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L14" s="2">
-        <f>10^((LOG(AVERAGE(H14:I14)-blank!$G$2, 10)-blank!$L$2)/blank!$M$2) * F14</f>
-        <v>31.572614809112913</v>
-      </c>
-      <c r="M14" s="2">
-        <f t="shared" si="0"/>
-        <v>3.1572614809112913</v>
-      </c>
-      <c r="N14" s="2">
-        <f t="shared" ref="N14:N19" si="2">M14/(M2+M14) * 100</f>
-        <v>2.6591545431024799</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" s="2">
-        <v>16</v>
-      </c>
-      <c r="G15" s="2">
-        <v>100</v>
-      </c>
-      <c r="H15" s="2">
-        <v>0.48846499999999998</v>
-      </c>
-      <c r="I15" s="2">
-        <v>0.4681844</v>
-      </c>
-      <c r="J15" s="3">
-        <v>43822</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L15" s="2">
-        <f>10^((LOG(AVERAGE(H15:I15)-blank!$G$2, 10)-blank!$L$2)/blank!$M$2) * F15</f>
-        <v>29.775645697911621</v>
-      </c>
-      <c r="M15" s="2">
-        <f t="shared" si="0"/>
-        <v>2.9775645697911624</v>
-      </c>
-      <c r="N15" s="2">
-        <f t="shared" si="2"/>
-        <v>4.0650457235495718</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F16" s="2">
-        <v>16</v>
-      </c>
-      <c r="G16" s="2">
-        <v>100</v>
-      </c>
-      <c r="H16" s="2">
-        <v>0.44776559999999999</v>
-      </c>
-      <c r="I16" s="2">
-        <v>0.42968089999999998</v>
-      </c>
-      <c r="J16" s="3">
-        <v>43822</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L16" s="2">
-        <f>10^((LOG(AVERAGE(H16:I16)-blank!$G$2, 10)-blank!$L$2)/blank!$M$2) * F16</f>
-        <v>26.148266449901858</v>
-      </c>
-      <c r="M16" s="2">
-        <f t="shared" si="0"/>
-        <v>2.614826644990186</v>
-      </c>
-      <c r="N16" s="2">
-        <f t="shared" si="2"/>
-        <v>3.610678779803282</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F17" s="2">
-        <v>16</v>
-      </c>
-      <c r="G17" s="2">
-        <v>100</v>
-      </c>
-      <c r="H17" s="2">
-        <v>1.2571840000000001</v>
-      </c>
-      <c r="I17" s="2">
-        <v>1.2401979999999999</v>
-      </c>
-      <c r="J17" s="3">
-        <v>43822</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L17" s="2">
-        <f>10^((LOG(AVERAGE(H17:I17)-blank!$G$2, 10)-blank!$L$2)/blank!$M$2) * F17</f>
-        <v>93.262935312699554</v>
-      </c>
-      <c r="M17" s="2">
-        <f t="shared" si="0"/>
-        <v>9.3262935312699557</v>
-      </c>
-      <c r="N17" s="2">
-        <f t="shared" si="2"/>
-        <v>6.7796099526583999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F18" s="2">
-        <v>16</v>
-      </c>
-      <c r="G18" s="2">
-        <v>100</v>
-      </c>
-      <c r="H18" s="2">
-        <v>1.146774</v>
-      </c>
-      <c r="I18" s="2">
-        <v>1.1670069999999999</v>
-      </c>
-      <c r="J18" s="3">
-        <v>43822</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L18" s="2">
-        <f>10^((LOG(AVERAGE(H18:I18)-blank!$G$2, 10)-blank!$L$2)/blank!$M$2) * F18</f>
-        <v>86.13157392753125</v>
-      </c>
-      <c r="M18" s="2">
-        <f t="shared" si="0"/>
-        <v>8.6131573927531253</v>
-      </c>
-      <c r="N18" s="2">
-        <f t="shared" si="2"/>
-        <v>8.775522348990874</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F19" s="2">
-        <v>16</v>
-      </c>
-      <c r="G19" s="2">
-        <v>100</v>
-      </c>
-      <c r="H19" s="2">
-        <v>1.229312</v>
-      </c>
-      <c r="I19" s="2">
-        <v>1.3269029999999999</v>
-      </c>
-      <c r="J19" s="3">
-        <v>43822</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L19" s="2">
-        <f>10^((LOG(AVERAGE(H19:I19)-blank!$G$2, 10)-blank!$L$2)/blank!$M$2) * F19</f>
-        <v>95.531606444667986</v>
-      </c>
-      <c r="M19" s="2">
-        <f t="shared" si="0"/>
-        <v>9.5531606444667982</v>
-      </c>
-      <c r="N19" s="2">
-        <f t="shared" si="2"/>
-        <v>64.882394076438629</v>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O19" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>

--- a/www/template.xlsx
+++ b/www/template.xlsx
@@ -9,19 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11400" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11400"/>
   </bookViews>
   <sheets>
     <sheet name="Blank" sheetId="3" r:id="rId1"/>
-    <sheet name="Vide" sheetId="1" r:id="rId2"/>
-    <sheet name="CT" sheetId="10" r:id="rId3"/>
+    <sheet name="CT" sheetId="10" r:id="rId2"/>
+    <sheet name="Vide" sheetId="1" r:id="rId3"/>
     <sheet name="MRAP2" sheetId="9" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.0" hidden="1">Vide!$G$8:$G$19</definedName>
-    <definedName name="_xlchart.1" hidden="1">Vide!$O$8:$O$19</definedName>
-    <definedName name="_xlchart.2" hidden="1">CT!$G$8:$G$19</definedName>
-    <definedName name="_xlchart.3" hidden="1">CT!$O$8:$O$19</definedName>
+    <definedName name="_xlchart.0" hidden="1">CT!$G$8:$G$19</definedName>
+    <definedName name="_xlchart.1" hidden="1">CT!$O$8:$O$19</definedName>
+    <definedName name="_xlchart.2" hidden="1">Vide!$G$8:$G$19</definedName>
+    <definedName name="_xlchart.3" hidden="1">Vide!$O$8:$O$19</definedName>
     <definedName name="_xlchart.4" hidden="1">MRAP2!$G$8:$G$19</definedName>
     <definedName name="_xlchart.5" hidden="1">MRAP2!$O$8:$O$19</definedName>
   </definedNames>
@@ -136,10 +136,10 @@
     <t>MRAP2</t>
   </si>
   <si>
-    <t>Marlene</t>
+    <t>Control</t>
   </si>
   <si>
-    <t>Control</t>
+    <t>You</t>
   </si>
 </sst>
 </file>
@@ -163,7 +163,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -173,6 +173,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -198,7 +204,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -207,6 +213,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -384,19 +392,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>-1.6171188328185646</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.1348895080281001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.59986195284654265</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-9.3588801690178136E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.12843875411450839</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3128,7 +3136,7 @@
       <mc:Choice xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" Requires="cx">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="5" name="Graphique 4"/>
+            <xdr:cNvPr id="2" name="Graphique 1"/>
             <xdr:cNvGraphicFramePr/>
           </xdr:nvGraphicFramePr>
           <xdr:xfrm>
@@ -3201,7 +3209,7 @@
       <mc:Choice xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" Requires="cx">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="2" name="Graphique 1"/>
+            <xdr:cNvPr id="5" name="Graphique 4"/>
             <xdr:cNvGraphicFramePr/>
           </xdr:nvGraphicFramePr>
           <xdr:xfrm>
@@ -3593,9 +3601,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3644,14 +3650,14 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
+      <c r="A2" s="6">
         <f ca="1">TODAY()</f>
-        <v>43832</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="4" t="s">
+        <v>43836</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>32</v>
       </c>
       <c r="D2" s="4" t="s">
@@ -3660,35 +3666,31 @@
       <c r="E2" s="4">
         <v>0</v>
       </c>
-      <c r="F2" s="4">
-        <v>0.1763641</v>
-      </c>
-      <c r="G2" s="4">
-        <v>0.16216549999999999</v>
-      </c>
-      <c r="H2" s="4">
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4" t="e">
         <f t="shared" ref="H2:H7" si="0">AVERAGE(F2:G2)</f>
-        <v>0.16926479999999999</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
-      <c r="M2">
+      <c r="M2" t="e">
         <f>INTERCEPT($I$3:$I$7,$J$3:$J$7)</f>
-        <v>-0.75311170846159248</v>
-      </c>
-      <c r="N2">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N2" t="e">
         <f>SLOPE($I$3:$I$7,$J$3:$J$7)</f>
-        <v>0.96613374810954222</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <f ca="1">Blank!A$2</f>
-        <v>43832</v>
+        <v>43836</v>
       </c>
       <c r="B3" s="5" t="str">
         <f>Blank!B$2</f>
-        <v>Marlene</v>
+        <v>You</v>
       </c>
       <c r="C3" s="5" t="str">
         <f>Blank!C$2</f>
@@ -3700,19 +3702,15 @@
       <c r="E3" s="4">
         <v>3</v>
       </c>
-      <c r="F3" s="4">
-        <v>0.19498869999999999</v>
-      </c>
-      <c r="G3" s="4">
-        <v>0.1918369</v>
-      </c>
-      <c r="H3" s="4">
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4" t="e">
         <f t="shared" si="0"/>
-        <v>0.1934128</v>
-      </c>
-      <c r="I3" s="4">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I3" s="4" t="e">
         <f>LOG(H3-$H$2, 10)</f>
-        <v>-1.6171188328185646</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="J3" s="4">
         <f>LOG(E3/23, 10)</f>
@@ -3722,11 +3720,11 @@
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <f ca="1">Blank!A$2</f>
-        <v>43832</v>
+        <v>43836</v>
       </c>
       <c r="B4" s="5" t="str">
         <f>Blank!B$2</f>
-        <v>Marlene</v>
+        <v>You</v>
       </c>
       <c r="C4" s="5" t="str">
         <f>Blank!C$2</f>
@@ -3738,19 +3736,15 @@
       <c r="E4" s="4">
         <v>9.74</v>
       </c>
-      <c r="F4" s="4">
-        <v>0.24529400000000001</v>
-      </c>
-      <c r="G4" s="4">
-        <v>0.23983779999999999</v>
-      </c>
-      <c r="H4" s="4">
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4" t="e">
         <f t="shared" si="0"/>
-        <v>0.2425659</v>
-      </c>
-      <c r="I4" s="4">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I4" s="4" t="e">
         <f t="shared" ref="I4:I7" si="1">LOG(H4-$H$2, 10)</f>
-        <v>-1.1348895080281001</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="J4" s="4">
         <f t="shared" ref="J4:J7" si="2">LOG(E4/23, 10)</f>
@@ -3760,11 +3754,11 @@
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <f ca="1">Blank!A$2</f>
-        <v>43832</v>
+        <v>43836</v>
       </c>
       <c r="B5" s="5" t="str">
         <f>Blank!B$2</f>
-        <v>Marlene</v>
+        <v>You</v>
       </c>
       <c r="C5" s="5" t="str">
         <f>Blank!C$2</f>
@@ -3776,19 +3770,15 @@
       <c r="E5" s="4">
         <v>29.8</v>
       </c>
-      <c r="F5" s="4">
-        <v>0.42611120000000002</v>
-      </c>
-      <c r="G5" s="4">
-        <v>0.41495539999999997</v>
-      </c>
-      <c r="H5" s="4">
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4" t="e">
         <f t="shared" si="0"/>
-        <v>0.4205333</v>
-      </c>
-      <c r="I5" s="4">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I5" s="4" t="e">
         <f t="shared" si="1"/>
-        <v>-0.59986195284654265</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="J5" s="4">
         <f t="shared" si="2"/>
@@ -3798,11 +3788,11 @@
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <f ca="1">Blank!A$2</f>
-        <v>43832</v>
+        <v>43836</v>
       </c>
       <c r="B6" s="5" t="str">
         <f>Blank!B$2</f>
-        <v>Marlene</v>
+        <v>You</v>
       </c>
       <c r="C6" s="5" t="str">
         <f>Blank!C$2</f>
@@ -3814,19 +3804,15 @@
       <c r="E6" s="4">
         <v>104</v>
       </c>
-      <c r="F6" s="4">
-        <v>0.97403810000000002</v>
-      </c>
-      <c r="G6" s="4">
-        <v>0.97677420000000004</v>
-      </c>
-      <c r="H6" s="4">
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4" t="e">
         <f t="shared" si="0"/>
-        <v>0.97540614999999997</v>
-      </c>
-      <c r="I6" s="4">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I6" s="4" t="e">
         <f t="shared" si="1"/>
-        <v>-9.3588801690178136E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="J6" s="4">
         <f t="shared" si="2"/>
@@ -3836,11 +3822,11 @@
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <f ca="1">Blank!A$2</f>
-        <v>43832</v>
+        <v>43836</v>
       </c>
       <c r="B7" s="5" t="str">
         <f>Blank!B$2</f>
-        <v>Marlene</v>
+        <v>You</v>
       </c>
       <c r="C7" s="5" t="str">
         <f>Blank!C$2</f>
@@ -3852,19 +3838,15 @@
       <c r="E7" s="4">
         <v>207</v>
       </c>
-      <c r="F7" s="4">
-        <v>1.4908680000000001</v>
-      </c>
-      <c r="G7" s="4">
-        <v>1.535906</v>
-      </c>
-      <c r="H7" s="4">
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4" t="e">
         <f t="shared" si="0"/>
-        <v>1.513387</v>
-      </c>
-      <c r="I7" s="4">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I7" s="4" t="e">
         <f t="shared" si="1"/>
-        <v>0.12843875411450839</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="J7" s="4">
         <f t="shared" si="2"/>
@@ -3879,976 +3861,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O19"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="0" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="15" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="0" hidden="1" customWidth="1"/>
-    <col min="5" max="6" width="11.42578125" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" customWidth="1"/>
-    <col min="11" max="11" width="14" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="29.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <f ca="1">Blank!A$2</f>
-        <v>43832</v>
-      </c>
-      <c r="B2" s="2" t="str">
-        <f>Blank!B$2</f>
-        <v>Marlene</v>
-      </c>
-      <c r="C2" s="2" t="str">
-        <f>Blank!C$2</f>
-        <v>MRAP2</v>
-      </c>
-      <c r="D2" s="1" t="str">
-        <f t="shared" ref="D2:D19" ca="1" si="0">RIGHT(CELL("nomfichier",A1),LEN(CELL("nomfichier",A1))-SEARCH("]",CELL("nomfichier",A1)))</f>
-        <v>Vide</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1">
-        <v>500</v>
-      </c>
-      <c r="L2" s="1">
-        <f>50</f>
-        <v>50</v>
-      </c>
-      <c r="M2" s="1" t="e">
-        <f>10^((LOG(AVERAGE(I2:J2)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N2" s="1" t="e">
-        <f t="shared" ref="N2:N19" si="1">(L2/10^3 * M2)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O2" s="1"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <f ca="1">Blank!A$2</f>
-        <v>43832</v>
-      </c>
-      <c r="B3" s="2" t="str">
-        <f>Blank!B$2</f>
-        <v>Marlene</v>
-      </c>
-      <c r="C3" s="2" t="str">
-        <f>Blank!C$2</f>
-        <v>MRAP2</v>
-      </c>
-      <c r="D3" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Vide</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="1" t="str">
-        <f>$F$2</f>
-        <v>Control</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1">
-        <v>500</v>
-      </c>
-      <c r="L3" s="1">
-        <f>50</f>
-        <v>50</v>
-      </c>
-      <c r="M3" s="1" t="e">
-        <f>10^((LOG(AVERAGE(I3:J3)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N3" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O3" s="1"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <f ca="1">Blank!A$2</f>
-        <v>43832</v>
-      </c>
-      <c r="B4" s="2" t="str">
-        <f>Blank!B$2</f>
-        <v>Marlene</v>
-      </c>
-      <c r="C4" s="2" t="str">
-        <f>Blank!C$2</f>
-        <v>MRAP2</v>
-      </c>
-      <c r="D4" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Vide</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="1" t="str">
-        <f t="shared" ref="F4:F19" si="2">$F$2</f>
-        <v>Control</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1">
-        <v>500</v>
-      </c>
-      <c r="L4" s="1">
-        <f>50</f>
-        <v>50</v>
-      </c>
-      <c r="M4" s="1" t="e">
-        <f>10^((LOG(AVERAGE(I4:J4)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K4</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N4" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O4" s="1"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <f ca="1">Blank!A$2</f>
-        <v>43832</v>
-      </c>
-      <c r="B5" s="2" t="str">
-        <f>Blank!B$2</f>
-        <v>Marlene</v>
-      </c>
-      <c r="C5" s="2" t="str">
-        <f>Blank!C$2</f>
-        <v>MRAP2</v>
-      </c>
-      <c r="D5" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Vide</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Control</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1">
-        <v>500</v>
-      </c>
-      <c r="L5" s="1">
-        <f>50</f>
-        <v>50</v>
-      </c>
-      <c r="M5" s="1" t="e">
-        <f>10^((LOG(AVERAGE(I5:J5)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N5" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O5" s="1"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <f ca="1">Blank!A$2</f>
-        <v>43832</v>
-      </c>
-      <c r="B6" s="2" t="str">
-        <f>Blank!B$2</f>
-        <v>Marlene</v>
-      </c>
-      <c r="C6" s="2" t="str">
-        <f>Blank!C$2</f>
-        <v>MRAP2</v>
-      </c>
-      <c r="D6" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Vide</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Control</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1">
-        <v>500</v>
-      </c>
-      <c r="L6" s="1">
-        <f>50</f>
-        <v>50</v>
-      </c>
-      <c r="M6" s="1" t="e">
-        <f>10^((LOG(AVERAGE(I6:J6)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N6" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O6" s="1"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <f ca="1">Blank!A$2</f>
-        <v>43832</v>
-      </c>
-      <c r="B7" s="2" t="str">
-        <f>Blank!B$2</f>
-        <v>Marlene</v>
-      </c>
-      <c r="C7" s="2" t="str">
-        <f>Blank!C$2</f>
-        <v>MRAP2</v>
-      </c>
-      <c r="D7" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Vide</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Control</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1">
-        <v>500</v>
-      </c>
-      <c r="L7" s="1">
-        <f>50</f>
-        <v>50</v>
-      </c>
-      <c r="M7" s="1" t="e">
-        <f>10^((LOG(AVERAGE(I7:J7)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N7" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O7" s="1"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
-        <f ca="1">Blank!A$2</f>
-        <v>43832</v>
-      </c>
-      <c r="B8" s="5" t="str">
-        <f>Blank!B$2</f>
-        <v>Marlene</v>
-      </c>
-      <c r="C8" s="5" t="str">
-        <f>Blank!C$2</f>
-        <v>MRAP2</v>
-      </c>
-      <c r="D8" s="4" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Vide</v>
-      </c>
-      <c r="E8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>Control</v>
-      </c>
-      <c r="G8" t="s">
-        <v>6</v>
-      </c>
-      <c r="H8" t="s">
-        <v>28</v>
-      </c>
-      <c r="K8">
-        <v>16</v>
-      </c>
-      <c r="L8">
-        <v>100</v>
-      </c>
-      <c r="M8" s="4" t="e">
-        <f>10^((LOG(AVERAGE(I8:J8)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K8</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N8" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O8" t="e">
-        <f t="shared" ref="O8:O13" si="3">N8/(N2+N8+N14) * 100</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
-        <f ca="1">Blank!A$2</f>
-        <v>43832</v>
-      </c>
-      <c r="B9" s="5" t="str">
-        <f>Blank!B$2</f>
-        <v>Marlene</v>
-      </c>
-      <c r="C9" s="5" t="str">
-        <f>Blank!C$2</f>
-        <v>MRAP2</v>
-      </c>
-      <c r="D9" s="4" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Vide</v>
-      </c>
-      <c r="E9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>Control</v>
-      </c>
-      <c r="G9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K9">
-        <v>16</v>
-      </c>
-      <c r="L9">
-        <v>100</v>
-      </c>
-      <c r="M9" s="4" t="e">
-        <f>10^((LOG(AVERAGE(I9:J9)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K9</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N9" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O9" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
-        <f ca="1">Blank!A$2</f>
-        <v>43832</v>
-      </c>
-      <c r="B10" s="5" t="str">
-        <f>Blank!B$2</f>
-        <v>Marlene</v>
-      </c>
-      <c r="C10" s="5" t="str">
-        <f>Blank!C$2</f>
-        <v>MRAP2</v>
-      </c>
-      <c r="D10" s="4" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Vide</v>
-      </c>
-      <c r="E10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>Control</v>
-      </c>
-      <c r="G10" t="s">
-        <v>6</v>
-      </c>
-      <c r="H10" t="s">
-        <v>28</v>
-      </c>
-      <c r="K10">
-        <v>16</v>
-      </c>
-      <c r="L10">
-        <v>100</v>
-      </c>
-      <c r="M10" s="4" t="e">
-        <f>10^((LOG(AVERAGE(I10:J10)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K10</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N10" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O10" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
-        <f ca="1">Blank!A$2</f>
-        <v>43832</v>
-      </c>
-      <c r="B11" s="5" t="str">
-        <f>Blank!B$2</f>
-        <v>Marlene</v>
-      </c>
-      <c r="C11" s="5" t="str">
-        <f>Blank!C$2</f>
-        <v>MRAP2</v>
-      </c>
-      <c r="D11" s="4" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Vide</v>
-      </c>
-      <c r="E11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>Control</v>
-      </c>
-      <c r="G11" t="s">
-        <v>7</v>
-      </c>
-      <c r="H11" t="s">
-        <v>29</v>
-      </c>
-      <c r="K11">
-        <v>16</v>
-      </c>
-      <c r="L11">
-        <v>100</v>
-      </c>
-      <c r="M11" s="4" t="e">
-        <f>10^((LOG(AVERAGE(I11:J11)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K11</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N11" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O11" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
-        <f ca="1">Blank!A$2</f>
-        <v>43832</v>
-      </c>
-      <c r="B12" s="5" t="str">
-        <f>Blank!B$2</f>
-        <v>Marlene</v>
-      </c>
-      <c r="C12" s="5" t="str">
-        <f>Blank!C$2</f>
-        <v>MRAP2</v>
-      </c>
-      <c r="D12" s="4" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Vide</v>
-      </c>
-      <c r="E12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>Control</v>
-      </c>
-      <c r="G12" t="s">
-        <v>7</v>
-      </c>
-      <c r="H12" t="s">
-        <v>29</v>
-      </c>
-      <c r="K12">
-        <v>16</v>
-      </c>
-      <c r="L12">
-        <v>100</v>
-      </c>
-      <c r="M12" s="4" t="e">
-        <f>10^((LOG(AVERAGE(I12:J12)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K12</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N12" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O12" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
-        <f ca="1">Blank!A$2</f>
-        <v>43832</v>
-      </c>
-      <c r="B13" s="5" t="str">
-        <f>Blank!B$2</f>
-        <v>Marlene</v>
-      </c>
-      <c r="C13" s="5" t="str">
-        <f>Blank!C$2</f>
-        <v>MRAP2</v>
-      </c>
-      <c r="D13" s="4" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Vide</v>
-      </c>
-      <c r="E13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>Control</v>
-      </c>
-      <c r="G13" t="s">
-        <v>7</v>
-      </c>
-      <c r="H13" t="s">
-        <v>29</v>
-      </c>
-      <c r="K13">
-        <v>16</v>
-      </c>
-      <c r="L13">
-        <v>100</v>
-      </c>
-      <c r="M13" s="4" t="e">
-        <f>10^((LOG(AVERAGE(I13:J13)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K13</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N13" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O13" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <f ca="1">Blank!A$2</f>
-        <v>43832</v>
-      </c>
-      <c r="B14" s="2" t="str">
-        <f>Blank!B$2</f>
-        <v>Marlene</v>
-      </c>
-      <c r="C14" s="2" t="str">
-        <f>Blank!C$2</f>
-        <v>MRAP2</v>
-      </c>
-      <c r="D14" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Vide</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Control</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1">
-        <v>16</v>
-      </c>
-      <c r="L14" s="1">
-        <v>100</v>
-      </c>
-      <c r="M14" s="1" t="e">
-        <f>10^((LOG(AVERAGE(I14:J14)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K14</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N14" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O14" s="1" t="e">
-        <f t="shared" ref="O14:O19" si="4">N14/(N2+N14) * 100</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <f ca="1">Blank!A$2</f>
-        <v>43832</v>
-      </c>
-      <c r="B15" s="2" t="str">
-        <f>Blank!B$2</f>
-        <v>Marlene</v>
-      </c>
-      <c r="C15" s="2" t="str">
-        <f>Blank!C$2</f>
-        <v>MRAP2</v>
-      </c>
-      <c r="D15" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Vide</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Control</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1">
-        <v>16</v>
-      </c>
-      <c r="L15" s="1">
-        <v>100</v>
-      </c>
-      <c r="M15" s="1" t="e">
-        <f>10^((LOG(AVERAGE(I15:J15)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K15</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N15" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O15" s="1" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <f ca="1">Blank!A$2</f>
-        <v>43832</v>
-      </c>
-      <c r="B16" s="2" t="str">
-        <f>Blank!B$2</f>
-        <v>Marlene</v>
-      </c>
-      <c r="C16" s="2" t="str">
-        <f>Blank!C$2</f>
-        <v>MRAP2</v>
-      </c>
-      <c r="D16" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Vide</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Control</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1">
-        <v>16</v>
-      </c>
-      <c r="L16" s="1">
-        <v>100</v>
-      </c>
-      <c r="M16" s="1" t="e">
-        <f>10^((LOG(AVERAGE(I16:J16)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K16</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N16" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O16" s="1" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <f ca="1">Blank!A$2</f>
-        <v>43832</v>
-      </c>
-      <c r="B17" s="2" t="str">
-        <f>Blank!B$2</f>
-        <v>Marlene</v>
-      </c>
-      <c r="C17" s="2" t="str">
-        <f>Blank!C$2</f>
-        <v>MRAP2</v>
-      </c>
-      <c r="D17" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Vide</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Control</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1">
-        <v>16</v>
-      </c>
-      <c r="L17" s="1">
-        <v>100</v>
-      </c>
-      <c r="M17" s="1" t="e">
-        <f>10^((LOG(AVERAGE(I17:J17)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K17</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N17" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O17" s="1" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <f ca="1">Blank!A$2</f>
-        <v>43832</v>
-      </c>
-      <c r="B18" s="2" t="str">
-        <f>Blank!B$2</f>
-        <v>Marlene</v>
-      </c>
-      <c r="C18" s="2" t="str">
-        <f>Blank!C$2</f>
-        <v>MRAP2</v>
-      </c>
-      <c r="D18" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Vide</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Control</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1">
-        <v>16</v>
-      </c>
-      <c r="L18" s="1">
-        <v>100</v>
-      </c>
-      <c r="M18" s="1" t="e">
-        <f>10^((LOG(AVERAGE(I18:J18)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K18</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N18" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O18" s="1" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
-        <f ca="1">Blank!A$2</f>
-        <v>43832</v>
-      </c>
-      <c r="B19" s="2" t="str">
-        <f>Blank!B$2</f>
-        <v>Marlene</v>
-      </c>
-      <c r="C19" s="2" t="str">
-        <f>Blank!C$2</f>
-        <v>MRAP2</v>
-      </c>
-      <c r="D19" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Vide</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Control</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1">
-        <v>16</v>
-      </c>
-      <c r="L19" s="1">
-        <v>100</v>
-      </c>
-      <c r="M19" s="1" t="e">
-        <f>10^((LOG(AVERAGE(I19:J19)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K19</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N19" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O19" s="1" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O19"/>
   <sheetViews>
@@ -4921,11 +3933,11 @@
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <f ca="1">Blank!A$2</f>
-        <v>43832</v>
+        <v>43836</v>
       </c>
       <c r="B2" s="2" t="str">
         <f>Blank!B$2</f>
-        <v>Marlene</v>
+        <v>You</v>
       </c>
       <c r="C2" s="2" t="str">
         <f>Blank!C$2</f>
@@ -4969,11 +3981,11 @@
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <f ca="1">Blank!A$2</f>
-        <v>43832</v>
+        <v>43836</v>
       </c>
       <c r="B3" s="2" t="str">
         <f>Blank!B$2</f>
-        <v>Marlene</v>
+        <v>You</v>
       </c>
       <c r="C3" s="2" t="str">
         <f>Blank!C$2</f>
@@ -5017,11 +4029,11 @@
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <f ca="1">Blank!A$2</f>
-        <v>43832</v>
+        <v>43836</v>
       </c>
       <c r="B4" s="2" t="str">
         <f>Blank!B$2</f>
-        <v>Marlene</v>
+        <v>You</v>
       </c>
       <c r="C4" s="2" t="str">
         <f>Blank!C$2</f>
@@ -5065,11 +4077,11 @@
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <f ca="1">Blank!A$2</f>
-        <v>43832</v>
+        <v>43836</v>
       </c>
       <c r="B5" s="2" t="str">
         <f>Blank!B$2</f>
-        <v>Marlene</v>
+        <v>You</v>
       </c>
       <c r="C5" s="2" t="str">
         <f>Blank!C$2</f>
@@ -5113,11 +4125,11 @@
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <f ca="1">Blank!A$2</f>
-        <v>43832</v>
+        <v>43836</v>
       </c>
       <c r="B6" s="2" t="str">
         <f>Blank!B$2</f>
-        <v>Marlene</v>
+        <v>You</v>
       </c>
       <c r="C6" s="2" t="str">
         <f>Blank!C$2</f>
@@ -5161,11 +4173,11 @@
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <f ca="1">Blank!A$2</f>
-        <v>43832</v>
+        <v>43836</v>
       </c>
       <c r="B7" s="2" t="str">
         <f>Blank!B$2</f>
-        <v>Marlene</v>
+        <v>You</v>
       </c>
       <c r="C7" s="2" t="str">
         <f>Blank!C$2</f>
@@ -5209,11 +4221,11 @@
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <f ca="1">Blank!A$2</f>
-        <v>43832</v>
+        <v>43836</v>
       </c>
       <c r="B8" s="5" t="str">
         <f>Blank!B$2</f>
-        <v>Marlene</v>
+        <v>You</v>
       </c>
       <c r="C8" s="5" t="str">
         <f>Blank!C$2</f>
@@ -5257,11 +4269,11 @@
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <f ca="1">Blank!A$2</f>
-        <v>43832</v>
+        <v>43836</v>
       </c>
       <c r="B9" s="5" t="str">
         <f>Blank!B$2</f>
-        <v>Marlene</v>
+        <v>You</v>
       </c>
       <c r="C9" s="5" t="str">
         <f>Blank!C$2</f>
@@ -5305,11 +4317,11 @@
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <f ca="1">Blank!A$2</f>
-        <v>43832</v>
+        <v>43836</v>
       </c>
       <c r="B10" s="5" t="str">
         <f>Blank!B$2</f>
-        <v>Marlene</v>
+        <v>You</v>
       </c>
       <c r="C10" s="5" t="str">
         <f>Blank!C$2</f>
@@ -5353,11 +4365,11 @@
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <f ca="1">Blank!A$2</f>
-        <v>43832</v>
+        <v>43836</v>
       </c>
       <c r="B11" s="5" t="str">
         <f>Blank!B$2</f>
-        <v>Marlene</v>
+        <v>You</v>
       </c>
       <c r="C11" s="5" t="str">
         <f>Blank!C$2</f>
@@ -5401,11 +4413,11 @@
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <f ca="1">Blank!A$2</f>
-        <v>43832</v>
+        <v>43836</v>
       </c>
       <c r="B12" s="5" t="str">
         <f>Blank!B$2</f>
-        <v>Marlene</v>
+        <v>You</v>
       </c>
       <c r="C12" s="5" t="str">
         <f>Blank!C$2</f>
@@ -5449,11 +4461,11 @@
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <f ca="1">Blank!A$2</f>
-        <v>43832</v>
+        <v>43836</v>
       </c>
       <c r="B13" s="5" t="str">
         <f>Blank!B$2</f>
-        <v>Marlene</v>
+        <v>You</v>
       </c>
       <c r="C13" s="5" t="str">
         <f>Blank!C$2</f>
@@ -5497,11 +4509,11 @@
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <f ca="1">Blank!A$2</f>
-        <v>43832</v>
+        <v>43836</v>
       </c>
       <c r="B14" s="2" t="str">
         <f>Blank!B$2</f>
-        <v>Marlene</v>
+        <v>You</v>
       </c>
       <c r="C14" s="2" t="str">
         <f>Blank!C$2</f>
@@ -5547,11 +4559,11 @@
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <f ca="1">Blank!A$2</f>
-        <v>43832</v>
+        <v>43836</v>
       </c>
       <c r="B15" s="2" t="str">
         <f>Blank!B$2</f>
-        <v>Marlene</v>
+        <v>You</v>
       </c>
       <c r="C15" s="2" t="str">
         <f>Blank!C$2</f>
@@ -5597,11 +4609,11 @@
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <f ca="1">Blank!A$2</f>
-        <v>43832</v>
+        <v>43836</v>
       </c>
       <c r="B16" s="2" t="str">
         <f>Blank!B$2</f>
-        <v>Marlene</v>
+        <v>You</v>
       </c>
       <c r="C16" s="2" t="str">
         <f>Blank!C$2</f>
@@ -5647,11 +4659,11 @@
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <f ca="1">Blank!A$2</f>
-        <v>43832</v>
+        <v>43836</v>
       </c>
       <c r="B17" s="2" t="str">
         <f>Blank!B$2</f>
-        <v>Marlene</v>
+        <v>You</v>
       </c>
       <c r="C17" s="2" t="str">
         <f>Blank!C$2</f>
@@ -5697,11 +4709,11 @@
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <f ca="1">Blank!A$2</f>
-        <v>43832</v>
+        <v>43836</v>
       </c>
       <c r="B18" s="2" t="str">
         <f>Blank!B$2</f>
-        <v>Marlene</v>
+        <v>You</v>
       </c>
       <c r="C18" s="2" t="str">
         <f>Blank!C$2</f>
@@ -5747,11 +4759,11 @@
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <f ca="1">Blank!A$2</f>
-        <v>43832</v>
+        <v>43836</v>
       </c>
       <c r="B19" s="2" t="str">
         <f>Blank!B$2</f>
-        <v>Marlene</v>
+        <v>You</v>
       </c>
       <c r="C19" s="2" t="str">
         <f>Blank!C$2</f>
@@ -5791,6 +4803,976 @@
       </c>
       <c r="O19" s="1" t="e">
         <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O19"/>
+  <sheetViews>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="0" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="15" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="0" hidden="1" customWidth="1"/>
+    <col min="5" max="6" width="11.42578125" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" customWidth="1"/>
+    <col min="11" max="11" width="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="29.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <f ca="1">Blank!A$2</f>
+        <v>43836</v>
+      </c>
+      <c r="B2" s="2" t="str">
+        <f>Blank!B$2</f>
+        <v>You</v>
+      </c>
+      <c r="C2" s="2" t="str">
+        <f>Blank!C$2</f>
+        <v>MRAP2</v>
+      </c>
+      <c r="D2" s="1" t="str">
+        <f t="shared" ref="D2:D19" ca="1" si="0">RIGHT(CELL("nomfichier",A1),LEN(CELL("nomfichier",A1))-SEARCH("]",CELL("nomfichier",A1)))</f>
+        <v>Vide</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1">
+        <v>500</v>
+      </c>
+      <c r="L2" s="1">
+        <f>50</f>
+        <v>50</v>
+      </c>
+      <c r="M2" s="1" t="e">
+        <f>10^((LOG(AVERAGE(I2:J2)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K2</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N2" s="1" t="e">
+        <f t="shared" ref="N2:N19" si="1">(L2/10^3 * M2)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O2" s="1"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <f ca="1">Blank!A$2</f>
+        <v>43836</v>
+      </c>
+      <c r="B3" s="2" t="str">
+        <f>Blank!B$2</f>
+        <v>You</v>
+      </c>
+      <c r="C3" s="2" t="str">
+        <f>Blank!C$2</f>
+        <v>MRAP2</v>
+      </c>
+      <c r="D3" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Vide</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="1" t="str">
+        <f>$F$2</f>
+        <v>Control</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1">
+        <v>500</v>
+      </c>
+      <c r="L3" s="1">
+        <f>50</f>
+        <v>50</v>
+      </c>
+      <c r="M3" s="1" t="e">
+        <f>10^((LOG(AVERAGE(I3:J3)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N3" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O3" s="1"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <f ca="1">Blank!A$2</f>
+        <v>43836</v>
+      </c>
+      <c r="B4" s="2" t="str">
+        <f>Blank!B$2</f>
+        <v>You</v>
+      </c>
+      <c r="C4" s="2" t="str">
+        <f>Blank!C$2</f>
+        <v>MRAP2</v>
+      </c>
+      <c r="D4" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Vide</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="1" t="str">
+        <f t="shared" ref="F4:F19" si="2">$F$2</f>
+        <v>Control</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1">
+        <v>500</v>
+      </c>
+      <c r="L4" s="1">
+        <f>50</f>
+        <v>50</v>
+      </c>
+      <c r="M4" s="1" t="e">
+        <f>10^((LOG(AVERAGE(I4:J4)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K4</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N4" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O4" s="1"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <f ca="1">Blank!A$2</f>
+        <v>43836</v>
+      </c>
+      <c r="B5" s="2" t="str">
+        <f>Blank!B$2</f>
+        <v>You</v>
+      </c>
+      <c r="C5" s="2" t="str">
+        <f>Blank!C$2</f>
+        <v>MRAP2</v>
+      </c>
+      <c r="D5" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Vide</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Control</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1">
+        <v>500</v>
+      </c>
+      <c r="L5" s="1">
+        <f>50</f>
+        <v>50</v>
+      </c>
+      <c r="M5" s="1" t="e">
+        <f>10^((LOG(AVERAGE(I5:J5)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K5</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N5" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O5" s="1"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <f ca="1">Blank!A$2</f>
+        <v>43836</v>
+      </c>
+      <c r="B6" s="2" t="str">
+        <f>Blank!B$2</f>
+        <v>You</v>
+      </c>
+      <c r="C6" s="2" t="str">
+        <f>Blank!C$2</f>
+        <v>MRAP2</v>
+      </c>
+      <c r="D6" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Vide</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Control</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1">
+        <v>500</v>
+      </c>
+      <c r="L6" s="1">
+        <f>50</f>
+        <v>50</v>
+      </c>
+      <c r="M6" s="1" t="e">
+        <f>10^((LOG(AVERAGE(I6:J6)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N6" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O6" s="1"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <f ca="1">Blank!A$2</f>
+        <v>43836</v>
+      </c>
+      <c r="B7" s="2" t="str">
+        <f>Blank!B$2</f>
+        <v>You</v>
+      </c>
+      <c r="C7" s="2" t="str">
+        <f>Blank!C$2</f>
+        <v>MRAP2</v>
+      </c>
+      <c r="D7" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Vide</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Control</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1">
+        <v>500</v>
+      </c>
+      <c r="L7" s="1">
+        <f>50</f>
+        <v>50</v>
+      </c>
+      <c r="M7" s="1" t="e">
+        <f>10^((LOG(AVERAGE(I7:J7)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N7" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <f ca="1">Blank!A$2</f>
+        <v>43836</v>
+      </c>
+      <c r="B8" s="5" t="str">
+        <f>Blank!B$2</f>
+        <v>You</v>
+      </c>
+      <c r="C8" s="5" t="str">
+        <f>Blank!C$2</f>
+        <v>MRAP2</v>
+      </c>
+      <c r="D8" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Vide</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Control</v>
+      </c>
+      <c r="G8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8">
+        <v>16</v>
+      </c>
+      <c r="L8">
+        <v>100</v>
+      </c>
+      <c r="M8" s="4" t="e">
+        <f>10^((LOG(AVERAGE(I8:J8)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K8</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N8" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O8" t="e">
+        <f t="shared" ref="O8:O13" si="3">N8/(N2+N8+N14) * 100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <f ca="1">Blank!A$2</f>
+        <v>43836</v>
+      </c>
+      <c r="B9" s="5" t="str">
+        <f>Blank!B$2</f>
+        <v>You</v>
+      </c>
+      <c r="C9" s="5" t="str">
+        <f>Blank!C$2</f>
+        <v>MRAP2</v>
+      </c>
+      <c r="D9" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Vide</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Control</v>
+      </c>
+      <c r="G9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9">
+        <v>16</v>
+      </c>
+      <c r="L9">
+        <v>100</v>
+      </c>
+      <c r="M9" s="4" t="e">
+        <f>10^((LOG(AVERAGE(I9:J9)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K9</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N9" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <f ca="1">Blank!A$2</f>
+        <v>43836</v>
+      </c>
+      <c r="B10" s="5" t="str">
+        <f>Blank!B$2</f>
+        <v>You</v>
+      </c>
+      <c r="C10" s="5" t="str">
+        <f>Blank!C$2</f>
+        <v>MRAP2</v>
+      </c>
+      <c r="D10" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Vide</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Control</v>
+      </c>
+      <c r="G10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" t="s">
+        <v>28</v>
+      </c>
+      <c r="K10">
+        <v>16</v>
+      </c>
+      <c r="L10">
+        <v>100</v>
+      </c>
+      <c r="M10" s="4" t="e">
+        <f>10^((LOG(AVERAGE(I10:J10)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K10</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N10" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O10" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <f ca="1">Blank!A$2</f>
+        <v>43836</v>
+      </c>
+      <c r="B11" s="5" t="str">
+        <f>Blank!B$2</f>
+        <v>You</v>
+      </c>
+      <c r="C11" s="5" t="str">
+        <f>Blank!C$2</f>
+        <v>MRAP2</v>
+      </c>
+      <c r="D11" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Vide</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Control</v>
+      </c>
+      <c r="G11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" t="s">
+        <v>29</v>
+      </c>
+      <c r="K11">
+        <v>16</v>
+      </c>
+      <c r="L11">
+        <v>100</v>
+      </c>
+      <c r="M11" s="4" t="e">
+        <f>10^((LOG(AVERAGE(I11:J11)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K11</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N11" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O11" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <f ca="1">Blank!A$2</f>
+        <v>43836</v>
+      </c>
+      <c r="B12" s="5" t="str">
+        <f>Blank!B$2</f>
+        <v>You</v>
+      </c>
+      <c r="C12" s="5" t="str">
+        <f>Blank!C$2</f>
+        <v>MRAP2</v>
+      </c>
+      <c r="D12" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Vide</v>
+      </c>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Control</v>
+      </c>
+      <c r="G12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" t="s">
+        <v>29</v>
+      </c>
+      <c r="K12">
+        <v>16</v>
+      </c>
+      <c r="L12">
+        <v>100</v>
+      </c>
+      <c r="M12" s="4" t="e">
+        <f>10^((LOG(AVERAGE(I12:J12)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K12</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N12" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O12" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <f ca="1">Blank!A$2</f>
+        <v>43836</v>
+      </c>
+      <c r="B13" s="5" t="str">
+        <f>Blank!B$2</f>
+        <v>You</v>
+      </c>
+      <c r="C13" s="5" t="str">
+        <f>Blank!C$2</f>
+        <v>MRAP2</v>
+      </c>
+      <c r="D13" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Vide</v>
+      </c>
+      <c r="E13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Control</v>
+      </c>
+      <c r="G13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" t="s">
+        <v>29</v>
+      </c>
+      <c r="K13">
+        <v>16</v>
+      </c>
+      <c r="L13">
+        <v>100</v>
+      </c>
+      <c r="M13" s="4" t="e">
+        <f>10^((LOG(AVERAGE(I13:J13)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K13</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N13" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O13" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <f ca="1">Blank!A$2</f>
+        <v>43836</v>
+      </c>
+      <c r="B14" s="2" t="str">
+        <f>Blank!B$2</f>
+        <v>You</v>
+      </c>
+      <c r="C14" s="2" t="str">
+        <f>Blank!C$2</f>
+        <v>MRAP2</v>
+      </c>
+      <c r="D14" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Vide</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Control</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1">
+        <v>16</v>
+      </c>
+      <c r="L14" s="1">
+        <v>100</v>
+      </c>
+      <c r="M14" s="1" t="e">
+        <f>10^((LOG(AVERAGE(I14:J14)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K14</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N14" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O14" s="1" t="e">
+        <f t="shared" ref="O14:O19" si="4">N14/(N2+N14) * 100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <f ca="1">Blank!A$2</f>
+        <v>43836</v>
+      </c>
+      <c r="B15" s="2" t="str">
+        <f>Blank!B$2</f>
+        <v>You</v>
+      </c>
+      <c r="C15" s="2" t="str">
+        <f>Blank!C$2</f>
+        <v>MRAP2</v>
+      </c>
+      <c r="D15" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Vide</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Control</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1">
+        <v>16</v>
+      </c>
+      <c r="L15" s="1">
+        <v>100</v>
+      </c>
+      <c r="M15" s="1" t="e">
+        <f>10^((LOG(AVERAGE(I15:J15)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K15</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N15" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O15" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <f ca="1">Blank!A$2</f>
+        <v>43836</v>
+      </c>
+      <c r="B16" s="2" t="str">
+        <f>Blank!B$2</f>
+        <v>You</v>
+      </c>
+      <c r="C16" s="2" t="str">
+        <f>Blank!C$2</f>
+        <v>MRAP2</v>
+      </c>
+      <c r="D16" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Vide</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Control</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1">
+        <v>16</v>
+      </c>
+      <c r="L16" s="1">
+        <v>100</v>
+      </c>
+      <c r="M16" s="1" t="e">
+        <f>10^((LOG(AVERAGE(I16:J16)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K16</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N16" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O16" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <f ca="1">Blank!A$2</f>
+        <v>43836</v>
+      </c>
+      <c r="B17" s="2" t="str">
+        <f>Blank!B$2</f>
+        <v>You</v>
+      </c>
+      <c r="C17" s="2" t="str">
+        <f>Blank!C$2</f>
+        <v>MRAP2</v>
+      </c>
+      <c r="D17" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Vide</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Control</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1">
+        <v>16</v>
+      </c>
+      <c r="L17" s="1">
+        <v>100</v>
+      </c>
+      <c r="M17" s="1" t="e">
+        <f>10^((LOG(AVERAGE(I17:J17)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K17</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N17" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O17" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <f ca="1">Blank!A$2</f>
+        <v>43836</v>
+      </c>
+      <c r="B18" s="2" t="str">
+        <f>Blank!B$2</f>
+        <v>You</v>
+      </c>
+      <c r="C18" s="2" t="str">
+        <f>Blank!C$2</f>
+        <v>MRAP2</v>
+      </c>
+      <c r="D18" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Vide</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Control</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1">
+        <v>16</v>
+      </c>
+      <c r="L18" s="1">
+        <v>100</v>
+      </c>
+      <c r="M18" s="1" t="e">
+        <f>10^((LOG(AVERAGE(I18:J18)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K18</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N18" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O18" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <f ca="1">Blank!A$2</f>
+        <v>43836</v>
+      </c>
+      <c r="B19" s="2" t="str">
+        <f>Blank!B$2</f>
+        <v>You</v>
+      </c>
+      <c r="C19" s="2" t="str">
+        <f>Blank!C$2</f>
+        <v>MRAP2</v>
+      </c>
+      <c r="D19" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Vide</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Control</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1">
+        <v>16</v>
+      </c>
+      <c r="L19" s="1">
+        <v>100</v>
+      </c>
+      <c r="M19" s="1" t="e">
+        <f>10^((LOG(AVERAGE(I19:J19)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K19</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N19" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O19" s="1" t="e">
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5874,11 +5856,11 @@
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <f ca="1">Blank!A$2</f>
-        <v>43832</v>
+        <v>43836</v>
       </c>
       <c r="B2" s="2" t="str">
         <f>Blank!B$2</f>
-        <v>Marlene</v>
+        <v>You</v>
       </c>
       <c r="C2" s="2" t="str">
         <f>Blank!C$2</f>
@@ -5922,11 +5904,11 @@
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <f ca="1">Blank!A$2</f>
-        <v>43832</v>
+        <v>43836</v>
       </c>
       <c r="B3" s="2" t="str">
         <f>Blank!B$2</f>
-        <v>Marlene</v>
+        <v>You</v>
       </c>
       <c r="C3" s="2" t="str">
         <f>Blank!C$2</f>
@@ -5970,11 +5952,11 @@
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <f ca="1">Blank!A$2</f>
-        <v>43832</v>
+        <v>43836</v>
       </c>
       <c r="B4" s="2" t="str">
         <f>Blank!B$2</f>
-        <v>Marlene</v>
+        <v>You</v>
       </c>
       <c r="C4" s="2" t="str">
         <f>Blank!C$2</f>
@@ -6018,11 +6000,11 @@
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <f ca="1">Blank!A$2</f>
-        <v>43832</v>
+        <v>43836</v>
       </c>
       <c r="B5" s="2" t="str">
         <f>Blank!B$2</f>
-        <v>Marlene</v>
+        <v>You</v>
       </c>
       <c r="C5" s="2" t="str">
         <f>Blank!C$2</f>
@@ -6066,11 +6048,11 @@
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <f ca="1">Blank!A$2</f>
-        <v>43832</v>
+        <v>43836</v>
       </c>
       <c r="B6" s="2" t="str">
         <f>Blank!B$2</f>
-        <v>Marlene</v>
+        <v>You</v>
       </c>
       <c r="C6" s="2" t="str">
         <f>Blank!C$2</f>
@@ -6114,11 +6096,11 @@
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <f ca="1">Blank!A$2</f>
-        <v>43832</v>
+        <v>43836</v>
       </c>
       <c r="B7" s="2" t="str">
         <f>Blank!B$2</f>
-        <v>Marlene</v>
+        <v>You</v>
       </c>
       <c r="C7" s="2" t="str">
         <f>Blank!C$2</f>
@@ -6162,11 +6144,11 @@
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <f ca="1">Blank!A$2</f>
-        <v>43832</v>
+        <v>43836</v>
       </c>
       <c r="B8" s="5" t="str">
         <f>Blank!B$2</f>
-        <v>Marlene</v>
+        <v>You</v>
       </c>
       <c r="C8" s="5" t="str">
         <f>Blank!C$2</f>
@@ -6210,11 +6192,11 @@
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <f ca="1">Blank!A$2</f>
-        <v>43832</v>
+        <v>43836</v>
       </c>
       <c r="B9" s="5" t="str">
         <f>Blank!B$2</f>
-        <v>Marlene</v>
+        <v>You</v>
       </c>
       <c r="C9" s="5" t="str">
         <f>Blank!C$2</f>
@@ -6258,11 +6240,11 @@
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <f ca="1">Blank!A$2</f>
-        <v>43832</v>
+        <v>43836</v>
       </c>
       <c r="B10" s="5" t="str">
         <f>Blank!B$2</f>
-        <v>Marlene</v>
+        <v>You</v>
       </c>
       <c r="C10" s="5" t="str">
         <f>Blank!C$2</f>
@@ -6306,11 +6288,11 @@
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <f ca="1">Blank!A$2</f>
-        <v>43832</v>
+        <v>43836</v>
       </c>
       <c r="B11" s="5" t="str">
         <f>Blank!B$2</f>
-        <v>Marlene</v>
+        <v>You</v>
       </c>
       <c r="C11" s="5" t="str">
         <f>Blank!C$2</f>
@@ -6354,11 +6336,11 @@
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <f ca="1">Blank!A$2</f>
-        <v>43832</v>
+        <v>43836</v>
       </c>
       <c r="B12" s="5" t="str">
         <f>Blank!B$2</f>
-        <v>Marlene</v>
+        <v>You</v>
       </c>
       <c r="C12" s="5" t="str">
         <f>Blank!C$2</f>
@@ -6402,11 +6384,11 @@
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <f ca="1">Blank!A$2</f>
-        <v>43832</v>
+        <v>43836</v>
       </c>
       <c r="B13" s="5" t="str">
         <f>Blank!B$2</f>
-        <v>Marlene</v>
+        <v>You</v>
       </c>
       <c r="C13" s="5" t="str">
         <f>Blank!C$2</f>
@@ -6450,11 +6432,11 @@
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <f ca="1">Blank!A$2</f>
-        <v>43832</v>
+        <v>43836</v>
       </c>
       <c r="B14" s="2" t="str">
         <f>Blank!B$2</f>
-        <v>Marlene</v>
+        <v>You</v>
       </c>
       <c r="C14" s="2" t="str">
         <f>Blank!C$2</f>
@@ -6500,11 +6482,11 @@
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <f ca="1">Blank!A$2</f>
-        <v>43832</v>
+        <v>43836</v>
       </c>
       <c r="B15" s="2" t="str">
         <f>Blank!B$2</f>
-        <v>Marlene</v>
+        <v>You</v>
       </c>
       <c r="C15" s="2" t="str">
         <f>Blank!C$2</f>
@@ -6550,11 +6532,11 @@
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <f ca="1">Blank!A$2</f>
-        <v>43832</v>
+        <v>43836</v>
       </c>
       <c r="B16" s="2" t="str">
         <f>Blank!B$2</f>
-        <v>Marlene</v>
+        <v>You</v>
       </c>
       <c r="C16" s="2" t="str">
         <f>Blank!C$2</f>
@@ -6600,11 +6582,11 @@
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <f ca="1">Blank!A$2</f>
-        <v>43832</v>
+        <v>43836</v>
       </c>
       <c r="B17" s="2" t="str">
         <f>Blank!B$2</f>
-        <v>Marlene</v>
+        <v>You</v>
       </c>
       <c r="C17" s="2" t="str">
         <f>Blank!C$2</f>
@@ -6650,11 +6632,11 @@
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <f ca="1">Blank!A$2</f>
-        <v>43832</v>
+        <v>43836</v>
       </c>
       <c r="B18" s="2" t="str">
         <f>Blank!B$2</f>
-        <v>Marlene</v>
+        <v>You</v>
       </c>
       <c r="C18" s="2" t="str">
         <f>Blank!C$2</f>
@@ -6700,11 +6682,11 @@
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <f ca="1">Blank!A$2</f>
-        <v>43832</v>
+        <v>43836</v>
       </c>
       <c r="B19" s="2" t="str">
         <f>Blank!B$2</f>
-        <v>Marlene</v>
+        <v>You</v>
       </c>
       <c r="C19" s="2" t="str">
         <f>Blank!C$2</f>
